--- a/results/cifar100/BiMeCo_cifar100.xlsx
+++ b/results/cifar100/BiMeCo_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.467620068946771</v>
+        <v>3.443170918827563</v>
       </c>
       <c r="D3">
-        <v>3.326497077941895</v>
+        <v>3.18855881690979</v>
       </c>
       <c r="E3">
-        <v>8.609999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.310079016113281</v>
+        <v>3.115885192871094</v>
       </c>
       <c r="J3">
-        <v>17.22</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.842727262361915</v>
+        <v>2.874541426126936</v>
       </c>
       <c r="D4">
-        <v>2.850534677505493</v>
+        <v>3.127816915512085</v>
       </c>
       <c r="E4">
-        <v>12.72</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>10.25474384765625</v>
+        <v>9.935096337890625</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.507775591538016</v>
+        <v>2.537051127020236</v>
       </c>
       <c r="D5">
-        <v>2.673585891723633</v>
+        <v>2.5722496509552</v>
       </c>
       <c r="E5">
-        <v>14.59</v>
+        <v>15.43</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2.815163403320312</v>
+        <v>3.114016528320312</v>
       </c>
       <c r="J5">
-        <v>25.44</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.242278697216405</v>
+        <v>2.272389295881828</v>
       </c>
       <c r="D6">
-        <v>2.400694370269775</v>
+        <v>2.784509420394897</v>
       </c>
       <c r="E6">
-        <v>18.21</v>
+        <v>14.3</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>10.4714740234375</v>
+        <v>11.1706994140625</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.024807261154715</v>
+        <v>2.066078187090106</v>
       </c>
       <c r="D7">
-        <v>2.766590595245361</v>
+        <v>2.289806842803955</v>
       </c>
       <c r="E7">
-        <v>14.45</v>
+        <v>18.19</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2.615271862792969</v>
+        <v>2.559810131835937</v>
       </c>
       <c r="J7">
-        <v>29.18</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.865685001938744</v>
+        <v>1.8943832479747</v>
       </c>
       <c r="D8">
-        <v>2.641721963882446</v>
+        <v>2.342273712158203</v>
       </c>
       <c r="E8">
-        <v>16.37</v>
+        <v>18.09</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>11.5191921875</v>
+        <v>11.5019546875</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.706258513231193</v>
+        <v>1.74641537349836</v>
       </c>
       <c r="D9">
-        <v>2.365637540817261</v>
+        <v>2.45499849319458</v>
       </c>
       <c r="E9">
-        <v>19.35</v>
+        <v>18.47</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>2.32183462524414</v>
+        <v>2.705120251464844</v>
       </c>
       <c r="J9">
-        <v>36.42</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.592243395020476</v>
+        <v>1.622188229476456</v>
       </c>
       <c r="D10">
-        <v>2.462459564208984</v>
+        <v>2.07828688621521</v>
       </c>
       <c r="E10">
-        <v>18.6</v>
+        <v>22.06</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>12.14175317382812</v>
+        <v>12.178444140625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.480938010511145</v>
+        <v>1.503521288390708</v>
       </c>
       <c r="D11">
-        <v>1.952460885047913</v>
+        <v>2.054221153259277</v>
       </c>
       <c r="E11">
-        <v>22.82</v>
+        <v>22.41</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>2.695584661865234</v>
+        <v>2.267783343505859</v>
       </c>
       <c r="J11">
-        <v>28.9</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.355152249336243</v>
+        <v>1.392967819112592</v>
       </c>
       <c r="D12">
-        <v>2.032597064971924</v>
+        <v>2.008895397186279</v>
       </c>
       <c r="E12">
-        <v>22.22</v>
+        <v>22.92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>12.5096685546875</v>
+        <v>12.36596606445313</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.262715827574772</v>
+        <v>1.286992624797652</v>
       </c>
       <c r="D13">
-        <v>2.262659072875977</v>
+        <v>2.202175140380859</v>
       </c>
       <c r="E13">
-        <v>21.37</v>
+        <v>21.02</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>2.555516387939453</v>
+        <v>2.328525311279297</v>
       </c>
       <c r="J13">
-        <v>32.74</v>
+        <v>36.18</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.172430835466469</v>
+        <v>1.187846018149789</v>
       </c>
       <c r="D14">
-        <v>2.181107997894287</v>
+        <v>2.101496458053589</v>
       </c>
       <c r="E14">
-        <v>21.96</v>
+        <v>21.87</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>13.60665419921875</v>
+        <v>13.13863051757813</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.076614324497966</v>
+        <v>1.101806141633903</v>
       </c>
       <c r="D15">
-        <v>2.016625165939331</v>
+        <v>1.971569418907166</v>
       </c>
       <c r="E15">
-        <v>23.13</v>
+        <v>24.01</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>2.323564654541016</v>
+        <v>2.410090545654297</v>
       </c>
       <c r="J15">
-        <v>38.7</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9935190318960004</v>
+        <v>1.017479381730071</v>
       </c>
       <c r="D16">
-        <v>1.978841543197632</v>
+        <v>2.030726909637451</v>
       </c>
       <c r="E16">
-        <v>23.28</v>
+        <v>23.43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>13.27214018554687</v>
+        <v>13.64217421875</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8970560542250101</v>
+        <v>0.9285027495527689</v>
       </c>
       <c r="D17">
-        <v>1.935306787490845</v>
+        <v>2.166671276092529</v>
       </c>
       <c r="E17">
-        <v>24.53</v>
+        <v>22.86</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>2.451775872802735</v>
+        <v>2.08573814086914</v>
       </c>
       <c r="J17">
-        <v>37.2</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8243116013771665</v>
+        <v>0.8403057572060981</v>
       </c>
       <c r="D18">
-        <v>2.150211334228516</v>
+        <v>2.02265477180481</v>
       </c>
       <c r="E18">
-        <v>23.79</v>
+        <v>24.69</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>13.52795712890625</v>
+        <v>14.09926333007813</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7484251392626129</v>
+        <v>0.7820145234597468</v>
       </c>
       <c r="D19">
-        <v>2.514408588409424</v>
+        <v>2.40898585319519</v>
       </c>
       <c r="E19">
-        <v>21.66</v>
+        <v>22.16</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>1.931588873291016</v>
+        <v>2.000502716064453</v>
       </c>
       <c r="J19">
-        <v>45.64</v>
+        <v>44.82</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6762136368624931</v>
+        <v>0.7034573191035111</v>
       </c>
       <c r="D20">
-        <v>2.368226051330566</v>
+        <v>2.224131345748901</v>
       </c>
       <c r="E20">
-        <v>22.46</v>
+        <v>23.51</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>13.74316538085938</v>
+        <v>13.81629907226563</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6225446394059511</v>
+        <v>0.6219145581785557</v>
       </c>
       <c r="D21">
-        <v>2.218771696090698</v>
+        <v>2.440788984298706</v>
       </c>
       <c r="E21">
-        <v>23.45</v>
+        <v>23.06</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2.038714782714844</v>
+        <v>1.974646759033203</v>
       </c>
       <c r="J21">
-        <v>44.44</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5527556171986909</v>
+        <v>0.5663337222242777</v>
       </c>
       <c r="D22">
-        <v>2.24274754524231</v>
+        <v>2.328077793121338</v>
       </c>
       <c r="E22">
-        <v>23.74</v>
+        <v>23.03</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>14.1940103515625</v>
+        <v>13.75939404296875</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4853500188451952</v>
+        <v>0.5059270202058607</v>
       </c>
       <c r="D23">
-        <v>2.42594313621521</v>
+        <v>2.490658521652222</v>
       </c>
       <c r="E23">
-        <v>23.54</v>
+        <v>23.05</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.19923974609375</v>
+        <v>2.201098974609375</v>
       </c>
       <c r="J23">
-        <v>42.74</v>
+        <v>42.04</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4202350610125382</v>
+        <v>0.4497721593464371</v>
       </c>
       <c r="D24">
-        <v>2.594168424606323</v>
+        <v>2.452846527099609</v>
       </c>
       <c r="E24">
-        <v>22.91</v>
+        <v>23.6</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>14.52123491210937</v>
+        <v>14.84037788085937</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3888477849221862</v>
+        <v>0.4207770484211171</v>
       </c>
       <c r="D25">
-        <v>2.292277336120605</v>
+        <v>2.399711608886719</v>
       </c>
       <c r="E25">
-        <v>24.11</v>
+        <v>23.81</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>2.140710729980469</v>
+        <v>2.116933551025391</v>
       </c>
       <c r="J25">
-        <v>43.92</v>
+        <v>43.74</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3466265243766582</v>
+        <v>0.8145913323469921</v>
       </c>
       <c r="D26">
-        <v>2.506530523300171</v>
+        <v>1.669939279556274</v>
       </c>
       <c r="E26">
-        <v>23.45</v>
+        <v>27.21</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>14.7761923828125</v>
+        <v>15.06064794921875</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3139222471323688</v>
+        <v>0.7167308198667206</v>
       </c>
       <c r="D27">
-        <v>3.020555734634399</v>
+        <v>1.701480627059937</v>
       </c>
       <c r="E27">
-        <v>21.87</v>
+        <v>26.92</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>1.991816137695313</v>
+        <v>1.916263781738281</v>
       </c>
       <c r="J27">
-        <v>46.26</v>
+        <v>48.02</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6137711761799534</v>
+        <v>0.6662824454560744</v>
       </c>
       <c r="D28">
-        <v>1.730541706085205</v>
+        <v>1.712007999420166</v>
       </c>
       <c r="E28">
-        <v>26.75</v>
+        <v>26.88</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>14.94382163085938</v>
+        <v>14.30064165039063</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.5207365432144266</v>
+        <v>0.6253860141851205</v>
       </c>
       <c r="D29">
-        <v>1.734112858772278</v>
+        <v>1.778817415237427</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>26.63</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>1.978682507324219</v>
+        <v>1.967609442138672</v>
       </c>
       <c r="J29">
-        <v>46.56</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.4751246357913566</v>
+        <v>0.5884427968907145</v>
       </c>
       <c r="D30">
-        <v>1.748701453208923</v>
+        <v>1.779976367950439</v>
       </c>
       <c r="E30">
-        <v>26.78</v>
+        <v>26.64</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>14.41218647460937</v>
+        <v>14.84909116210937</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.4386440053977798</v>
+        <v>0.5516715239634556</v>
       </c>
       <c r="D31">
-        <v>1.791082620620728</v>
+        <v>1.875518441200256</v>
       </c>
       <c r="E31">
-        <v>26.78</v>
+        <v>26.49</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.925031652832031</v>
+        <v>2.121466040039063</v>
       </c>
       <c r="J31">
-        <v>49.06</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4083665503864795</v>
+        <v>0.5159935845737964</v>
       </c>
       <c r="D32">
-        <v>1.812914848327637</v>
+        <v>1.813153743743896</v>
       </c>
       <c r="E32">
-        <v>26.33</v>
+        <v>26.68</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>14.72889072265625</v>
+        <v>15.955886328125</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3746029621204444</v>
+        <v>0.4801716741207427</v>
       </c>
       <c r="D33">
-        <v>1.86248767375946</v>
+        <v>1.85897171497345</v>
       </c>
       <c r="E33">
-        <v>26.16</v>
+        <v>26.25</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>2.081892071533203</v>
+        <v>1.964025836181641</v>
       </c>
       <c r="J33">
-        <v>47.58</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3488083054534102</v>
+        <v>0.4449790581665208</v>
       </c>
       <c r="D34">
-        <v>1.898078799247742</v>
+        <v>1.902688264846802</v>
       </c>
       <c r="E34">
-        <v>26.17</v>
+        <v>26.22</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>15.48026259765625</v>
+        <v>15.76830454101563</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3183562977124104</v>
+        <v>0.4136098169647487</v>
       </c>
       <c r="D35">
-        <v>1.92547070980072</v>
+        <v>1.959398150444031</v>
       </c>
       <c r="E35">
-        <v>26.04</v>
+        <v>25.74</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>2.434883770751953</v>
+        <v>2.293940856933594</v>
       </c>
       <c r="J35">
-        <v>43.32</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.2916232372543453</v>
+        <v>0.3838113746811858</v>
       </c>
       <c r="D36">
-        <v>1.948615789413452</v>
+        <v>2.008665084838867</v>
       </c>
       <c r="E36">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>16.2636130859375</v>
+        <v>15.68769262695312</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.2679678490467831</v>
+        <v>0.7038064282552331</v>
       </c>
       <c r="D37">
-        <v>1.985495567321777</v>
+        <v>1.660817265510559</v>
       </c>
       <c r="E37">
-        <v>25.55</v>
+        <v>27.19</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>2.3062349609375</v>
+        <v>2.127797229003906</v>
       </c>
       <c r="J37">
-        <v>44.92</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.2442973960289913</v>
+        <v>0.6831532600706658</v>
       </c>
       <c r="D38">
-        <v>2.04637336730957</v>
+        <v>1.670092105865479</v>
       </c>
       <c r="E38">
-        <v>25.66</v>
+        <v>27.48</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>16.32856088867187</v>
+        <v>15.683530078125</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.5087824888461459</v>
+        <v>0.6691345134667591</v>
       </c>
       <c r="D39">
-        <v>1.689021706581116</v>
+        <v>1.678480267524719</v>
       </c>
       <c r="E39">
         <v>27.29</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>2.168730206298828</v>
+        <v>2.367439617919922</v>
       </c>
       <c r="J39">
-        <v>46.9</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.4899315918441368</v>
+        <v>0.6531715941640128</v>
       </c>
       <c r="D40">
-        <v>1.691004395484924</v>
+        <v>1.664323568344116</v>
       </c>
       <c r="E40">
-        <v>27.05</v>
+        <v>27.1</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>16.09081396484375</v>
+        <v>16.2073404296875</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.4759981703441755</v>
+        <v>0.6432303791552518</v>
       </c>
       <c r="D41">
-        <v>1.715116381645203</v>
+        <v>1.685018658638</v>
       </c>
       <c r="E41">
-        <v>27.04</v>
+        <v>27.1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>2.172892651367187</v>
+        <v>2.328108898925781</v>
       </c>
       <c r="J41">
-        <v>47.48</v>
+        <v>46.06</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.465034482489645</v>
+        <v>0.6314460719581199</v>
       </c>
       <c r="D42">
-        <v>1.69873321056366</v>
+        <v>1.694641351699829</v>
       </c>
       <c r="E42">
-        <v>27.12</v>
+        <v>27.19</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>15.99218940429687</v>
+        <v>15.981044921875</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.4539768168356566</v>
+        <v>0.6203259203286298</v>
       </c>
       <c r="D43">
-        <v>1.714674234390259</v>
+        <v>1.726671576499939</v>
       </c>
       <c r="E43">
-        <v>26.98</v>
+        <v>27.11</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>2.354999951171875</v>
+        <v>2.423258654785156</v>
       </c>
       <c r="J43">
-        <v>47.08</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.4404013259748442</v>
+        <v>0.6082654405484157</v>
       </c>
       <c r="D44">
-        <v>1.728817820549011</v>
+        <v>1.699854731559753</v>
       </c>
       <c r="E44">
-        <v>26.91</v>
+        <v>27.03</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>16.8406751953125</v>
+        <v>16.35143544921875</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.4330406663692103</v>
+        <v>0.5946547505074897</v>
       </c>
       <c r="D45">
-        <v>1.722991704940796</v>
+        <v>1.734264612197876</v>
       </c>
       <c r="E45">
-        <v>26.71</v>
+        <v>26.95</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>2.494356451416015</v>
+        <v>2.365410125732422</v>
       </c>
       <c r="J45">
-        <v>45.82</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.4226721192883179</v>
+        <v>0.5893984885342354</v>
       </c>
       <c r="D46">
-        <v>1.744223117828369</v>
+        <v>1.708641171455383</v>
       </c>
       <c r="E46">
-        <v>26.97</v>
+        <v>26.98</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>17.59640278320312</v>
+        <v>16.72194619140625</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.4106270037921129</v>
+        <v>0.576818001481284</v>
       </c>
       <c r="D47">
-        <v>1.740711688995361</v>
+        <v>1.73480236530304</v>
       </c>
       <c r="E47">
-        <v>26.91</v>
+        <v>27.06</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>2.256938024902344</v>
+        <v>2.391182135009766</v>
       </c>
       <c r="J47">
-        <v>48.22</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1769,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.4040388660093324</v>
+        <v>0.6811526143445378</v>
       </c>
       <c r="D48">
-        <v>1.759687066078186</v>
+        <v>1.665662288665771</v>
       </c>
       <c r="E48">
-        <v>26.83</v>
+        <v>27.38</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>16.2231681640625</v>
+        <v>16.71914067382813</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.3932461939026824</v>
+        <v>0.6744590180110087</v>
       </c>
       <c r="D49">
-        <v>1.770303606987</v>
+        <v>1.669362306594849</v>
       </c>
       <c r="E49">
-        <v>26.77</v>
+        <v>27.36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>2.460598712158203</v>
+        <v>1.634872332763672</v>
       </c>
       <c r="J49">
-        <v>46.9</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1827,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.4887499933221699</v>
+        <v>0.6718878848890287</v>
       </c>
       <c r="D50">
-        <v>1.694386601448059</v>
+        <v>1.667876839637756</v>
       </c>
       <c r="E50">
-        <v>27.17</v>
+        <v>27.39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>16.9715041015625</v>
+        <v>14.42873588867188</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.4841927938756689</v>
+        <v>0.668574579521618</v>
       </c>
       <c r="D51">
-        <v>1.699032664299011</v>
+        <v>1.663644909858704</v>
       </c>
       <c r="E51">
-        <v>27.16</v>
+        <v>27.36</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>2.82758949584961</v>
+        <v>1.6619525390625</v>
       </c>
       <c r="J51">
-        <v>43.74</v>
+        <v>53.84</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.4811668741492043</v>
+        <v>0.6653781675659449</v>
       </c>
       <c r="D52">
-        <v>1.716365694999695</v>
+        <v>1.668634176254272</v>
       </c>
       <c r="E52">
-        <v>27.12</v>
+        <v>27.39</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>18.06091748046875</v>
+        <v>14.55009990234375</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.4782250805766182</v>
+        <v>0.6638131004519168</v>
       </c>
       <c r="D53">
-        <v>1.698139667510986</v>
+        <v>1.662093162536621</v>
       </c>
       <c r="E53">
-        <v>27.11</v>
+        <v>27.42</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>1.668032159423828</v>
+        <v>1.684208813476562</v>
       </c>
       <c r="J53">
-        <v>53.5</v>
+        <v>53.76</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1943,13 +1943,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.472909221606972</v>
+        <v>0.6607642595746875</v>
       </c>
       <c r="D54">
-        <v>1.68569815158844</v>
+        <v>1.645822167396545</v>
       </c>
       <c r="E54">
-        <v>27.15</v>
+        <v>27.34</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>14.82672983398438</v>
+        <v>14.50645439453125</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.4716783221316548</v>
+        <v>0.6555686608879967</v>
       </c>
       <c r="D55">
-        <v>1.705149531364441</v>
+        <v>1.654736518859863</v>
       </c>
       <c r="E55">
-        <v>27.14</v>
+        <v>27.27</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>1.693583416748047</v>
+        <v>1.740913720703125</v>
       </c>
       <c r="J55">
-        <v>54</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2001,13 +2001,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.4665990532499499</v>
+        <v>0.6540900980476785</v>
       </c>
       <c r="D56">
-        <v>1.709108710289001</v>
+        <v>1.674491047859192</v>
       </c>
       <c r="E56">
-        <v>27.1</v>
+        <v>27.38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>15.00272880859375</v>
+        <v>14.88004873046875</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.4664396108251757</v>
+        <v>0.6504781130140862</v>
       </c>
       <c r="D57">
-        <v>1.691895723342896</v>
+        <v>1.68528950214386</v>
       </c>
       <c r="E57">
-        <v>27.14</v>
+        <v>27.22</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1.736369122314453</v>
+        <v>1.747866931152344</v>
       </c>
       <c r="J57">
-        <v>53.56</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2059,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.4627297225251662</v>
+        <v>0.6455091765496583</v>
       </c>
       <c r="D58">
-        <v>1.709355473518372</v>
+        <v>1.695566058158875</v>
       </c>
       <c r="E58">
-        <v>27.11</v>
+        <v>27.21</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>15.15288920898437</v>
+        <v>15.00267216796875</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.4595841066499727</v>
+        <v>0.6438323159133439</v>
       </c>
       <c r="D59">
-        <v>1.699543237686157</v>
+        <v>1.678311347961426</v>
       </c>
       <c r="E59">
-        <v>27.14</v>
+        <v>27.24</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>1.74779765625</v>
+        <v>1.816827752685547</v>
       </c>
       <c r="J59">
-        <v>53.56</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2117,13 +2117,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.4569333828656019</v>
+        <v>0.641962799878247</v>
       </c>
       <c r="D60">
-        <v>1.707289338111877</v>
+        <v>1.682820320129395</v>
       </c>
       <c r="E60">
-        <v>27.07</v>
+        <v>27.24</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>15.24509262695313</v>
+        <v>15.13364345703125</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.4544175699748824</v>
+        <v>0.6389861083136196</v>
       </c>
       <c r="D61">
-        <v>1.69997501373291</v>
+        <v>1.676342248916626</v>
       </c>
       <c r="E61">
-        <v>26.96</v>
+        <v>27.13</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2161,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1.808767547607422</v>
+        <v>1.796328778076172</v>
       </c>
       <c r="J61">
-        <v>52.66</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.4529039719990924</v>
+        <v>0.6362938511688098</v>
       </c>
       <c r="D62">
-        <v>1.695929169654846</v>
+        <v>1.691012859344482</v>
       </c>
       <c r="E62">
-        <v>27.06</v>
+        <v>27.09</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>15.4813015625</v>
+        <v>15.06713046875</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.4482904999657015</v>
+        <v>0.6341671542783754</v>
       </c>
       <c r="D63">
-        <v>1.702368855476379</v>
+        <v>1.692166566848755</v>
       </c>
       <c r="E63">
-        <v>27.01</v>
+        <v>27.15</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>1.830408404541016</v>
+        <v>1.828666925048828</v>
       </c>
       <c r="J63">
-        <v>52.32</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2233,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.447982568128974</v>
+        <v>0.6285736613569006</v>
       </c>
       <c r="D64">
-        <v>1.723591327667236</v>
+        <v>1.680897116661072</v>
       </c>
       <c r="E64">
-        <v>27</v>
+        <v>27.13</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>15.53212646484375</v>
+        <v>15.202616796875</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.4690493703943438</v>
+        <v>0.656626940828509</v>
       </c>
       <c r="D65">
-        <v>1.695322871208191</v>
+        <v>1.66599702835083</v>
       </c>
       <c r="E65">
-        <v>27.08</v>
+        <v>27.27</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>1.845840197753906</v>
+        <v>1.851229211425781</v>
       </c>
       <c r="J65">
-        <v>52.34</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2291,13 +2291,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.4692554349920391</v>
+        <v>0.6534724377952845</v>
       </c>
       <c r="D66">
-        <v>1.710532307624817</v>
+        <v>1.669624924659729</v>
       </c>
       <c r="E66">
-        <v>27.13</v>
+        <v>27.22</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>15.61625249023438</v>
+        <v>15.16383095703125</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.4666443187578589</v>
+        <v>0.6525777124725611</v>
       </c>
       <c r="D67">
-        <v>1.714481949806213</v>
+        <v>1.668683052062988</v>
       </c>
       <c r="E67">
-        <v>27.1</v>
+        <v>27.23</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>1.884994213867188</v>
+        <v>1.930335528564453</v>
       </c>
       <c r="J67">
-        <v>52.08</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2349,13 +2349,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.4697763054771761</v>
+        <v>0.6520884079215801</v>
       </c>
       <c r="D68">
-        <v>1.689338207244873</v>
+        <v>1.672846078872681</v>
       </c>
       <c r="E68">
-        <v>27.08</v>
+        <v>27.32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>15.701676171875</v>
+        <v>15.406314453125</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.469103513829476</v>
+        <v>0.6524669791744874</v>
       </c>
       <c r="D69">
-        <v>1.712127566337585</v>
+        <v>1.663479208946228</v>
       </c>
       <c r="E69">
-        <v>27.19</v>
+        <v>27.24</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>1.924836883544922</v>
+        <v>1.958908416748047</v>
       </c>
       <c r="J69">
-        <v>51.4</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2407,13 +2407,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.4665853961379127</v>
+        <v>0.6517406469952743</v>
       </c>
       <c r="D70">
-        <v>1.69326639175415</v>
+        <v>1.681639313697815</v>
       </c>
       <c r="E70">
-        <v>27.18</v>
+        <v>27.33</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>15.72796552734375</v>
+        <v>15.83152294921875</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2436,10 +2436,10 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.4658141663644166</v>
+        <v>0.6524730398591641</v>
       </c>
       <c r="D71">
-        <v>1.697156429290771</v>
+        <v>1.659618616104126</v>
       </c>
       <c r="E71">
         <v>27.2</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>1.963374493408203</v>
+        <v>1.625755780029297</v>
       </c>
       <c r="J71">
-        <v>51.1</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2465,13 +2465,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.4665781499537747</v>
+        <v>0.649213323814679</v>
       </c>
       <c r="D72">
-        <v>1.711106181144714</v>
+        <v>1.660555720329285</v>
       </c>
       <c r="E72">
-        <v>27.13</v>
+        <v>27.29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>15.8528994140625</v>
+        <v>14.56466918945313</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.4640531273542252</v>
+        <v>0.6503713687436771</v>
       </c>
       <c r="D73">
-        <v>1.696190237998962</v>
+        <v>1.653432965278625</v>
       </c>
       <c r="E73">
-        <v>27.04</v>
+        <v>27.23</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2509,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>1.996644354248047</v>
+        <v>1.62966435546875</v>
       </c>
       <c r="J73">
-        <v>51.32</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2523,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.4670788397831199</v>
+        <v>0.6478001393575584</v>
       </c>
       <c r="D74">
-        <v>1.714586734771729</v>
+        <v>1.675222158432007</v>
       </c>
       <c r="E74">
-        <v>27.14</v>
+        <v>27.18</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>16.08254189453125</v>
+        <v>14.55845600585937</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.4709773548936422</v>
+        <v>0.6565406670612571</v>
       </c>
       <c r="D75">
-        <v>1.690781235694885</v>
+        <v>1.67364239692688</v>
       </c>
       <c r="E75">
-        <v>27.04</v>
+        <v>27.35</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>1.650881280517578</v>
+        <v>1.636477557373047</v>
       </c>
       <c r="J75">
         <v>54.58</v>
@@ -2581,13 +2581,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.4679854011113665</v>
+        <v>0.6542732741980426</v>
       </c>
       <c r="D76">
-        <v>1.684053778648376</v>
+        <v>1.677199602127075</v>
       </c>
       <c r="E76">
-        <v>27.06</v>
+        <v>27.35</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>14.93898071289063</v>
+        <v>14.61300688476562</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.4701192313063461</v>
+        <v>0.6557486315744113</v>
       </c>
       <c r="D77">
-        <v>1.706711053848267</v>
+        <v>1.678796648979187</v>
       </c>
       <c r="E77">
-        <v>27.09</v>
+        <v>27.37</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2625,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>1.663142730712891</v>
+        <v>1.642218780517578</v>
       </c>
       <c r="J77">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2639,13 +2639,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.4704555209759063</v>
+        <v>0.6556793240319311</v>
       </c>
       <c r="D78">
-        <v>1.698058724403381</v>
+        <v>1.677611589431763</v>
       </c>
       <c r="E78">
-        <v>27.19</v>
+        <v>27.43</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>14.89744853515625</v>
+        <v>14.56401733398437</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.4710492046005958</v>
+        <v>0.6551918724996854</v>
       </c>
       <c r="D79">
-        <v>1.694474220275879</v>
+        <v>1.670797944068909</v>
       </c>
       <c r="E79">
-        <v>27.05</v>
+        <v>27.25</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>1.672639990234375</v>
+        <v>1.648359033203125</v>
       </c>
       <c r="J79">
-        <v>54.08</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.469149237976665</v>
+        <v>0.6543801806669319</v>
       </c>
       <c r="D80">
-        <v>1.693105936050415</v>
+        <v>1.669477105140686</v>
       </c>
       <c r="E80">
-        <v>27.21</v>
+        <v>27.38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>14.96402666015625</v>
+        <v>14.5773953125</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.468729445364623</v>
+        <v>0.6535975313292141</v>
       </c>
       <c r="D81">
-        <v>1.693914532661438</v>
+        <v>1.67730450630188</v>
       </c>
       <c r="E81">
-        <v>27.09</v>
+        <v>27.2</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>1.679677777099609</v>
+        <v>1.655253576660156</v>
       </c>
       <c r="J81">
-        <v>54.24</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2755,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.4705914775882147</v>
+        <v>0.653440532958613</v>
       </c>
       <c r="D82">
-        <v>1.682850122451782</v>
+        <v>1.666937708854675</v>
       </c>
       <c r="E82">
-        <v>27.19</v>
+        <v>27.24</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>14.9877427734375</v>
+        <v>14.67041713867187</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.4686309146670113</v>
+        <v>0.6535650908419516</v>
       </c>
       <c r="D83">
-        <v>1.685808062553406</v>
+        <v>1.670809388160706</v>
       </c>
       <c r="E83">
-        <v>27.16</v>
+        <v>27.21</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>1.688099133300781</v>
+        <v>1.664918402099609</v>
       </c>
       <c r="J83">
-        <v>53.96</v>
+        <v>54.22</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.4695866535195207</v>
+        <v>0.6557986551681451</v>
       </c>
       <c r="D84">
-        <v>1.689775109291077</v>
+        <v>1.682438969612122</v>
       </c>
       <c r="E84">
-        <v>27.22</v>
+        <v>27.33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>15.05399165039062</v>
+        <v>14.65093173828125</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.4676301041535572</v>
+        <v>0.6581831679934949</v>
       </c>
       <c r="D85">
-        <v>1.719017863273621</v>
+        <v>1.653188347816467</v>
       </c>
       <c r="E85">
-        <v>27.17</v>
+        <v>27.35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>1.701079125976563</v>
+        <v>1.671654895019531</v>
       </c>
       <c r="J85">
-        <v>53.82</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2871,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.4677431638789388</v>
+        <v>0.6538811977458211</v>
       </c>
       <c r="D86">
-        <v>1.71511709690094</v>
+        <v>1.656585216522217</v>
       </c>
       <c r="E86">
-        <v>27.09</v>
+        <v>27.29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>15.09977509765625</v>
+        <v>14.73779521484375</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.4679998597212597</v>
+        <v>0.6564181568348302</v>
       </c>
       <c r="D87">
-        <v>1.697136759757996</v>
+        <v>1.676773428916931</v>
       </c>
       <c r="E87">
-        <v>27.06</v>
+        <v>27.35</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2915,10 +2915,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>1.700111920166016</v>
+        <v>1.678502185058594</v>
       </c>
       <c r="J87">
-        <v>53.42</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2929,13 +2929,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.4681954067365258</v>
+        <v>0.6568090907767811</v>
       </c>
       <c r="D88">
-        <v>1.706350803375244</v>
+        <v>1.663555383682251</v>
       </c>
       <c r="E88">
-        <v>27.11</v>
+        <v>27.37</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>15.041323046875</v>
+        <v>14.73382885742187</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.4659717539242939</v>
+        <v>0.655443947399612</v>
       </c>
       <c r="D89">
-        <v>1.698240637779236</v>
+        <v>1.658110618591309</v>
       </c>
       <c r="E89">
-        <v>27</v>
+        <v>27.28</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -2973,10 +2973,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>1.718407135009766</v>
+        <v>1.681319140625</v>
       </c>
       <c r="J89">
-        <v>53.94</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2987,13 +2987,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.4686077295151432</v>
+        <v>0.6570502989060056</v>
       </c>
       <c r="D90">
-        <v>1.688591241836548</v>
+        <v>1.678742647171021</v>
       </c>
       <c r="E90">
-        <v>27.1</v>
+        <v>27.34</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>15.15891401367188</v>
+        <v>14.733998828125</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.4704643031664654</v>
+        <v>0.6534145532456119</v>
       </c>
       <c r="D91">
-        <v>1.694958209991455</v>
+        <v>1.671036124229431</v>
       </c>
       <c r="E91">
-        <v>27.16</v>
+        <v>27.18</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>1.716660076904297</v>
+        <v>1.691463208007812</v>
       </c>
       <c r="J91">
-        <v>53.82</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3045,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.4693539949644983</v>
+        <v>0.6554944578525239</v>
       </c>
       <c r="D92">
-        <v>1.69281792640686</v>
+        <v>1.689086198806763</v>
       </c>
       <c r="E92">
-        <v>27.11</v>
+        <v>27.25</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>15.17062192382813</v>
+        <v>14.76811401367187</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.468803212969704</v>
+        <v>0.6545268233898467</v>
       </c>
       <c r="D93">
-        <v>1.706490516662598</v>
+        <v>1.667084336280823</v>
       </c>
       <c r="E93">
-        <v>27.07</v>
+        <v>27.3</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>1.731231646728516</v>
+        <v>1.625114868164063</v>
       </c>
       <c r="J93">
-        <v>53.66</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3103,13 +3103,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.4687362331732184</v>
+        <v>0.6554209400067287</v>
       </c>
       <c r="D94">
-        <v>1.701399207115173</v>
+        <v>1.688027381896973</v>
       </c>
       <c r="E94">
-        <v>27.17</v>
+        <v>27.21</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>15.21256772460938</v>
+        <v>14.53813959960937</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.4679129448084705</v>
+        <v>0.6558684516797023</v>
       </c>
       <c r="D95">
-        <v>1.701300501823425</v>
+        <v>1.681145668029785</v>
       </c>
       <c r="E95">
-        <v>27.15</v>
+        <v>27.23</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>1.729449145507812</v>
+        <v>1.624340631103516</v>
       </c>
       <c r="J95">
-        <v>53.54</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3161,13 +3161,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.4687740438807327</v>
+        <v>0.6544123265595563</v>
       </c>
       <c r="D96">
-        <v>1.689200401306152</v>
+        <v>1.661726355552673</v>
       </c>
       <c r="E96">
-        <v>27.09</v>
+        <v>27.2</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>15.14367119140625</v>
+        <v>14.53755844726562</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.4690247718739299</v>
+        <v>0.6548700169124434</v>
       </c>
       <c r="D97">
-        <v>1.677049398422241</v>
+        <v>1.70359468460083</v>
       </c>
       <c r="E97">
-        <v>27.01</v>
+        <v>27.31</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>1.6531208984375</v>
+        <v>1.625526147460937</v>
       </c>
       <c r="J97">
-        <v>54.34</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.4683724330589835</v>
+        <v>0.6542940946806849</v>
       </c>
       <c r="D98">
-        <v>1.700063467025757</v>
+        <v>1.669243097305298</v>
       </c>
       <c r="E98">
-        <v>27.13</v>
+        <v>27.27</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3234,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>14.9457373046875</v>
+        <v>14.54114838867187</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.4685524419873162</v>
+        <v>0.6529481099770132</v>
       </c>
       <c r="D99">
-        <v>1.717879295349121</v>
+        <v>1.683349370956421</v>
       </c>
       <c r="E99">
-        <v>27.13</v>
+        <v>27.33</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>1.658615618896484</v>
+        <v>1.628051153564453</v>
       </c>
       <c r="J99">
-        <v>54.32</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3277,13 +3277,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.469344645211127</v>
+        <v>0.6547306533408376</v>
       </c>
       <c r="D100">
-        <v>1.710975885391235</v>
+        <v>1.667797327041626</v>
       </c>
       <c r="E100">
-        <v>27.06</v>
+        <v>27.33</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>15.01319477539062</v>
+        <v>14.56134399414062</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -3306,13 +3306,13 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.469164391270781</v>
+        <v>0.6549523834106141</v>
       </c>
       <c r="D101">
-        <v>1.680755496025085</v>
+        <v>1.667430758476257</v>
       </c>
       <c r="E101">
-        <v>27.17</v>
+        <v>27.34</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>1.660275756835937</v>
+        <v>1.628807354736328</v>
       </c>
       <c r="J101">
-        <v>54.24</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3335,13 +3335,13 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.4703284968844557</v>
+        <v>0.6549255067268304</v>
       </c>
       <c r="D102">
-        <v>1.721165060997009</v>
+        <v>1.654561638832092</v>
       </c>
       <c r="E102">
-        <v>27.05</v>
+        <v>27.39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3350,7 +3350,7 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>15.00626088867187</v>
+        <v>14.54043383789062</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.4695715178958083</v>
+        <v>0.6565376003231622</v>
       </c>
       <c r="D103">
-        <v>1.690902829170227</v>
+        <v>1.682079195976257</v>
       </c>
       <c r="E103">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3379,10 +3379,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>1.659498828125</v>
+        <v>1.631093676757813</v>
       </c>
       <c r="J103">
-        <v>54.22</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3393,13 +3393,13 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.4670201452959955</v>
+        <v>0.6561899438368536</v>
       </c>
       <c r="D104">
-        <v>1.708227038383484</v>
+        <v>1.673740267753601</v>
       </c>
       <c r="E104">
-        <v>27.09</v>
+        <v>27.35</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3408,28 +3408,13 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>14.96760029296875</v>
+        <v>14.57976274414063</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>0.4687793581886629</v>
-      </c>
-      <c r="D105">
-        <v>1.699375510215759</v>
-      </c>
-      <c r="E105">
-        <v>27.14</v>
-      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -3437,28 +3422,13 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>1.662692218017578</v>
+        <v>1.631840563964844</v>
       </c>
       <c r="J105">
-        <v>54.3</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
-        <v>0.4689957734230346</v>
-      </c>
-      <c r="D106">
-        <v>1.698874592781067</v>
-      </c>
-      <c r="E106">
-        <v>27.12</v>
-      </c>
       <c r="G106">
         <v>1</v>
       </c>
@@ -3466,28 +3436,13 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>14.99681298828125</v>
+        <v>14.59374086914062</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
-        <v>0.4671445243653998</v>
-      </c>
-      <c r="D107">
-        <v>1.709977626800537</v>
-      </c>
-      <c r="E107">
-        <v>27.13</v>
-      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -3495,28 +3450,13 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>1.664308288574219</v>
+        <v>1.6346859375</v>
       </c>
       <c r="J107">
-        <v>54.28</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
-        <v>0.4678045411025528</v>
-      </c>
-      <c r="D108">
-        <v>1.709783792495728</v>
-      </c>
-      <c r="E108">
-        <v>27.14</v>
-      </c>
       <c r="G108">
         <v>1</v>
       </c>
@@ -3524,28 +3464,13 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>15.01816791992188</v>
+        <v>14.59428935546875</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
-        <v>0.4670309363740736</v>
-      </c>
-      <c r="D109">
-        <v>1.681023240089417</v>
-      </c>
-      <c r="E109">
-        <v>27.12</v>
-      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -3553,28 +3478,13 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>1.666793640136719</v>
+        <v>1.635586364746094</v>
       </c>
       <c r="J109">
-        <v>54.2</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>108</v>
-      </c>
-      <c r="C110">
-        <v>0.4707685912077406</v>
-      </c>
-      <c r="D110">
-        <v>1.695112586021423</v>
-      </c>
-      <c r="E110">
-        <v>27.12</v>
-      </c>
       <c r="G110">
         <v>1</v>
       </c>
@@ -3582,28 +3492,13 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>15.02484135742188</v>
+        <v>14.62155336914062</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>109</v>
-      </c>
-      <c r="C111">
-        <v>0.4680007100105286</v>
-      </c>
-      <c r="D111">
-        <v>1.71988320350647</v>
-      </c>
-      <c r="E111">
-        <v>27.1</v>
-      </c>
       <c r="G111">
         <v>0</v>
       </c>
@@ -3611,28 +3506,13 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>1.66617705078125</v>
+        <v>1.636185363769531</v>
       </c>
       <c r="J111">
-        <v>54.28</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112">
-        <v>110</v>
-      </c>
-      <c r="C112">
-        <v>0.46816466392669</v>
-      </c>
-      <c r="D112">
-        <v>1.700587511062622</v>
-      </c>
-      <c r="E112">
-        <v>27.08</v>
-      </c>
       <c r="G112">
         <v>1</v>
       </c>
@@ -3640,28 +3520,13 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>14.99261225585938</v>
+        <v>14.62363618164063</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>111</v>
-      </c>
-      <c r="C113">
-        <v>0.4661438565338608</v>
-      </c>
-      <c r="D113">
-        <v>1.692606925964355</v>
-      </c>
-      <c r="E113">
-        <v>27.13</v>
-      </c>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>0</v>
       </c>
@@ -3669,28 +3534,13 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>1.6709587890625</v>
+        <v>1.639309564208984</v>
       </c>
       <c r="J113">
-        <v>54.22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>112</v>
-      </c>
-      <c r="C114">
-        <v>0.4690132489246605</v>
-      </c>
-      <c r="D114">
-        <v>1.693239688873291</v>
-      </c>
-      <c r="E114">
-        <v>27.11</v>
-      </c>
+        <v>54.42</v>
+      </c>
+    </row>
+    <row r="114" spans="7:10">
       <c r="G114">
         <v>1</v>
       </c>
@@ -3698,28 +3548,13 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>15.01243642578125</v>
+        <v>14.60600307617188</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>113</v>
-      </c>
-      <c r="C115">
-        <v>0.4680072021695365</v>
-      </c>
-      <c r="D115">
-        <v>1.713992238044739</v>
-      </c>
-      <c r="E115">
-        <v>27.2</v>
-      </c>
+    <row r="115" spans="7:10">
       <c r="G115">
         <v>0</v>
       </c>
@@ -3727,28 +3562,13 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>1.671798236083984</v>
+        <v>1.638589184570312</v>
       </c>
       <c r="J115">
-        <v>54.28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>114</v>
-      </c>
-      <c r="C116">
-        <v>0.4683698381470368</v>
-      </c>
-      <c r="D116">
-        <v>1.717515587806702</v>
-      </c>
-      <c r="E116">
-        <v>27.09</v>
-      </c>
+        <v>54.48</v>
+      </c>
+    </row>
+    <row r="116" spans="7:10">
       <c r="G116">
         <v>1</v>
       </c>
@@ -3756,28 +3576,13 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>15.01197470703125</v>
+        <v>14.5986568359375</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>115</v>
-      </c>
-      <c r="C117">
-        <v>0.4682813503045951</v>
-      </c>
-      <c r="D117">
-        <v>1.694278836250305</v>
-      </c>
-      <c r="E117">
-        <v>27.1</v>
-      </c>
+    <row r="117" spans="7:10">
       <c r="G117">
         <v>0</v>
       </c>
@@ -3785,13 +3590,13 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>1.673371520996094</v>
+        <v>1.639697637939453</v>
       </c>
       <c r="J117">
-        <v>54.14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>54.48</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10">
       <c r="G118">
         <v>1</v>
       </c>
@@ -3799,13 +3604,13 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>15.01753178710937</v>
+        <v>14.60296030273438</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>0</v>
       </c>
@@ -3813,13 +3618,13 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>1.676224877929688</v>
+        <v>1.642772454833984</v>
       </c>
       <c r="J119">
-        <v>53.92</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10">
       <c r="G120">
         <v>1</v>
       </c>
@@ -3827,13 +3632,13 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>15.05089594726562</v>
+        <v>14.60756748046875</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="7:10">
       <c r="G121">
         <v>0</v>
       </c>
@@ -3841,13 +3646,13 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>1.676651489257813</v>
+        <v>1.643892718505859</v>
       </c>
       <c r="J121">
-        <v>54.12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10">
       <c r="G122">
         <v>1</v>
       </c>
@@ -3855,13 +3660,13 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>15.01934296875</v>
+        <v>14.62161357421875</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="7:10">
       <c r="G123">
         <v>0</v>
       </c>
@@ -3869,13 +3674,13 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>1.679353234863281</v>
+        <v>1.645607696533203</v>
       </c>
       <c r="J123">
-        <v>54.02</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="124" spans="7:10">
       <c r="G124">
         <v>1</v>
       </c>
@@ -3883,13 +3688,13 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>15.04109169921875</v>
+        <v>14.66759555664063</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="7:10">
       <c r="G125">
         <v>0</v>
       </c>
@@ -3897,13 +3702,13 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>1.684230401611328</v>
+        <v>1.646479693603516</v>
       </c>
       <c r="J125">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="126" spans="7:10">
       <c r="G126">
         <v>1</v>
       </c>
@@ -3911,13 +3716,13 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>15.048539453125</v>
+        <v>14.6327611328125</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="7:10">
       <c r="G127">
         <v>0</v>
       </c>
@@ -3925,13 +3730,13 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>1.662306994628906</v>
+        <v>1.632376922607422</v>
       </c>
       <c r="J127">
-        <v>54.16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>54.54</v>
+      </c>
+    </row>
+    <row r="128" spans="7:10">
       <c r="G128">
         <v>1</v>
       </c>
@@ -3939,7 +3744,7 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>14.9908654296875</v>
+        <v>14.58322856445312</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -3953,10 +3758,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>1.661271032714844</v>
+        <v>1.633092608642578</v>
       </c>
       <c r="J129">
-        <v>54.26</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -3967,7 +3772,7 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>14.96058266601563</v>
+        <v>14.5690353515625</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -3981,10 +3786,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>1.664001330566406</v>
+        <v>1.632913055419922</v>
       </c>
       <c r="J131">
-        <v>54.2</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -3995,7 +3800,7 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>15.00862358398438</v>
+        <v>14.58031108398438</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -4009,10 +3814,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>1.664110479736328</v>
+        <v>1.633160290527344</v>
       </c>
       <c r="J133">
-        <v>54.16</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -4023,7 +3828,7 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>15.00857509765625</v>
+        <v>14.59090571289063</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -4037,10 +3842,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>1.661568756103516</v>
+        <v>1.634363818359375</v>
       </c>
       <c r="J135">
-        <v>54.38</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -4051,7 +3856,7 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>14.9742951171875</v>
+        <v>14.58071391601563</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -4065,10 +3870,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>1.664351745605469</v>
+        <v>1.633410198974609</v>
       </c>
       <c r="J137">
-        <v>54.36</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -4079,7 +3884,7 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>14.98517416992187</v>
+        <v>14.59629819335938</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -4093,7 +3898,7 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>1.666347937011719</v>
+        <v>1.636506750488281</v>
       </c>
       <c r="J139">
         <v>54.4</v>
@@ -4107,7 +3912,7 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>15.00769716796875</v>
+        <v>14.61850200195313</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -4121,10 +3926,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>1.664452575683594</v>
+        <v>1.634652691650391</v>
       </c>
       <c r="J141">
-        <v>54.26</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -4135,7 +3940,7 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>14.95895776367188</v>
+        <v>14.58347587890625</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -4149,10 +3954,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>1.664439788818359</v>
+        <v>1.635730010986328</v>
       </c>
       <c r="J143">
-        <v>54.08</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -4163,7 +3968,7 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>15.00795205078125</v>
+        <v>14.62162319335937</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -4177,10 +3982,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>1.666806237792969</v>
+        <v>1.634156408691406</v>
       </c>
       <c r="J145">
-        <v>54.28</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -4191,7 +3996,7 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>15.01079116210937</v>
+        <v>14.5629845703125</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -4205,10 +4010,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>1.663957574462891</v>
+        <v>1.633440808105469</v>
       </c>
       <c r="J147">
-        <v>54.08</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -4219,7 +4024,7 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>14.96515966796875</v>
+        <v>14.6098271484375</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -4233,10 +4038,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>1.662380291748047</v>
+        <v>1.633389862060547</v>
       </c>
       <c r="J149">
-        <v>54.12</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -4247,7 +4052,7 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>15.00412875976562</v>
+        <v>14.60088071289062</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4261,10 +4066,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>1.661352288818359</v>
+        <v>1.632527905273438</v>
       </c>
       <c r="J151">
-        <v>54.18</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -4275,7 +4080,7 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>14.98184990234375</v>
+        <v>14.59506372070313</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4289,10 +4094,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>1.661502117919922</v>
+        <v>1.632828411865234</v>
       </c>
       <c r="J153">
-        <v>54.38</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -4303,7 +4108,7 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>14.97117661132813</v>
+        <v>14.59430444335938</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4317,10 +4122,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>1.663322369384766</v>
+        <v>1.632061517333984</v>
       </c>
       <c r="J155">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -4331,7 +4136,7 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>14.99328432617187</v>
+        <v>14.57798046875</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4345,10 +4150,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>1.662093560791016</v>
+        <v>1.632698840332031</v>
       </c>
       <c r="J157">
-        <v>54.42</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -4359,7 +4164,7 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>14.99571127929688</v>
+        <v>14.61302939453125</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4373,10 +4178,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>1.658840026855469</v>
+        <v>1.632992999267578</v>
       </c>
       <c r="J159">
-        <v>54.18</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -4387,7 +4192,7 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>14.92797407226563</v>
+        <v>14.59687568359375</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -4401,10 +4206,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>1.661575128173828</v>
+        <v>1.633936511230469</v>
       </c>
       <c r="J161">
-        <v>54.38</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -4415,7 +4220,7 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>14.98976567382812</v>
+        <v>14.61861733398437</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -4429,10 +4234,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>1.659451947021484</v>
+        <v>1.632304797363281</v>
       </c>
       <c r="J163">
-        <v>54.32</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -4443,7 +4248,7 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>14.9653326171875</v>
+        <v>14.5812685546875</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -4457,10 +4262,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>1.662543127441406</v>
+        <v>1.633951452636719</v>
       </c>
       <c r="J165">
-        <v>54.44</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -4471,7 +4276,7 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>14.9764123046875</v>
+        <v>14.61354916992187</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4485,10 +4290,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>1.662188635253906</v>
+        <v>1.632068383789063</v>
       </c>
       <c r="J167">
-        <v>54.34</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -4499,7 +4304,7 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>14.9789291015625</v>
+        <v>14.58430629882812</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4513,10 +4318,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>1.666506860351562</v>
+        <v>1.631610363769531</v>
       </c>
       <c r="J169">
-        <v>54.18</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -4527,7 +4332,7 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>15.0390044921875</v>
+        <v>14.56039970703125</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -4541,10 +4346,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>1.663974963378906</v>
+        <v>1.63356396484375</v>
       </c>
       <c r="J171">
-        <v>54.12</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -4555,7 +4360,7 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>14.99458881835938</v>
+        <v>14.62506059570313</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -4569,10 +4374,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>1.663084088134766</v>
+        <v>1.632518536376953</v>
       </c>
       <c r="J173">
-        <v>54.22</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -4583,7 +4388,7 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>14.9558658203125</v>
+        <v>14.54807241210938</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4597,10 +4402,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>1.663207818603516</v>
+        <v>1.632554455566406</v>
       </c>
       <c r="J175">
-        <v>54</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -4611,7 +4416,7 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>14.97822802734375</v>
+        <v>14.60416010742187</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4625,10 +4430,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>1.661463995361328</v>
+        <v>1.6320685546875</v>
       </c>
       <c r="J177">
-        <v>54.2</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -4639,7 +4444,7 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>14.97255942382812</v>
+        <v>14.58304868164062</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4653,10 +4458,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>1.661042004394531</v>
+        <v>1.63260693359375</v>
       </c>
       <c r="J179">
-        <v>54.32</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -4667,7 +4472,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>14.96517392578125</v>
+        <v>14.55803647460938</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4681,10 +4486,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>1.663009417724609</v>
+        <v>1.632608721923828</v>
       </c>
       <c r="J181">
-        <v>54.22</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -4695,7 +4500,7 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>14.98669228515625</v>
+        <v>14.60002495117187</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -4709,10 +4514,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>1.663529974365234</v>
+        <v>1.632286926269531</v>
       </c>
       <c r="J183">
-        <v>54.14</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -4723,7 +4528,7 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>14.98330268554687</v>
+        <v>14.59248579101562</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -4737,10 +4542,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>1.663855212402344</v>
+        <v>1.632027734375</v>
       </c>
       <c r="J185">
-        <v>54.34</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -4751,7 +4556,7 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>15.009994140625</v>
+        <v>14.57649497070313</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4765,10 +4570,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>1.662177685546875</v>
+        <v>1.633335406494141</v>
       </c>
       <c r="J187">
-        <v>54.3</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -4779,7 +4584,7 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>14.99578974609375</v>
+        <v>14.60296206054688</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -4793,10 +4598,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>1.664703057861328</v>
+        <v>1.631330834960937</v>
       </c>
       <c r="J189">
-        <v>54.18</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -4807,7 +4612,7 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>15.00354252929687</v>
+        <v>14.57212583007813</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -4821,10 +4626,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>1.663904150390625</v>
+        <v>1.630159466552734</v>
       </c>
       <c r="J191">
-        <v>54.02</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -4835,7 +4640,7 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>15.0137326171875</v>
+        <v>14.54888232421875</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -4849,10 +4654,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>1.660355126953125</v>
+        <v>1.633442492675781</v>
       </c>
       <c r="J193">
-        <v>54.26</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -4863,7 +4668,7 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>14.98488603515625</v>
+        <v>14.61618471679687</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -4877,10 +4682,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>1.663358630371094</v>
+        <v>1.633613854980469</v>
       </c>
       <c r="J195">
-        <v>54.26</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -4891,7 +4696,7 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>14.99938310546875</v>
+        <v>14.59300986328125</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -4905,10 +4710,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>1.661986901855469</v>
+        <v>1.632343878173828</v>
       </c>
       <c r="J197">
-        <v>54.12</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -4919,7 +4724,7 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>14.9674373046875</v>
+        <v>14.58564448242188</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -4933,10 +4738,10 @@
         <v>99</v>
       </c>
       <c r="I199">
-        <v>1.663050244140625</v>
+        <v>1.63180283203125</v>
       </c>
       <c r="J199">
-        <v>54.34</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="200" spans="7:10">
@@ -4947,7 +4752,7 @@
         <v>99</v>
       </c>
       <c r="I200">
-        <v>15.0523599609375</v>
+        <v>14.61077919921875</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -4961,10 +4766,10 @@
         <v>100</v>
       </c>
       <c r="I201">
-        <v>1.664821185302734</v>
+        <v>1.632388531494141</v>
       </c>
       <c r="J201">
-        <v>54.1</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="202" spans="7:10">
@@ -4975,7 +4780,7 @@
         <v>100</v>
       </c>
       <c r="I202">
-        <v>15.00442905273438</v>
+        <v>14.607509375</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -4989,10 +4794,10 @@
         <v>101</v>
       </c>
       <c r="I203">
-        <v>1.663176519775391</v>
+        <v>1.63187353515625</v>
       </c>
       <c r="J203">
-        <v>54.22</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="204" spans="7:10">
@@ -5003,7 +4808,7 @@
         <v>101</v>
       </c>
       <c r="I204">
-        <v>14.9670853515625</v>
+        <v>14.61684897460938</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -5017,10 +4822,10 @@
         <v>102</v>
       </c>
       <c r="I205">
-        <v>1.665073181152344</v>
+        <v>1.633240985107422</v>
       </c>
       <c r="J205">
-        <v>54.18</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="206" spans="7:10">
@@ -5031,373 +4836,9 @@
         <v>102</v>
       </c>
       <c r="I206">
-        <v>15.02723452148438</v>
+        <v>14.60470673828125</v>
       </c>
       <c r="J206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="7:10">
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>103</v>
-      </c>
-      <c r="I207">
-        <v>1.662021185302734</v>
-      </c>
-      <c r="J207">
-        <v>54.28</v>
-      </c>
-    </row>
-    <row r="208" spans="7:10">
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>103</v>
-      </c>
-      <c r="I208">
-        <v>15.00056997070313</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>104</v>
-      </c>
-      <c r="I209">
-        <v>1.660372497558594</v>
-      </c>
-      <c r="J209">
-        <v>54.24</v>
-      </c>
-    </row>
-    <row r="210" spans="7:10">
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>104</v>
-      </c>
-      <c r="I210">
-        <v>14.96660571289062</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="7:10">
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>105</v>
-      </c>
-      <c r="I211">
-        <v>1.662154431152344</v>
-      </c>
-      <c r="J211">
-        <v>54.26</v>
-      </c>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>105</v>
-      </c>
-      <c r="I212">
-        <v>14.97053168945313</v>
-      </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>106</v>
-      </c>
-      <c r="I213">
-        <v>1.661843560791016</v>
-      </c>
-      <c r="J213">
-        <v>54.28</v>
-      </c>
-    </row>
-    <row r="214" spans="7:10">
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>106</v>
-      </c>
-      <c r="I214">
-        <v>15.00476923828125</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="7:10">
-      <c r="G215">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>107</v>
-      </c>
-      <c r="I215">
-        <v>1.662138201904297</v>
-      </c>
-      <c r="J215">
-        <v>54.24</v>
-      </c>
-    </row>
-    <row r="216" spans="7:10">
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>107</v>
-      </c>
-      <c r="I216">
-        <v>14.9799044921875</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="7:10">
-      <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>108</v>
-      </c>
-      <c r="I217">
-        <v>1.663873358154297</v>
-      </c>
-      <c r="J217">
-        <v>54.24</v>
-      </c>
-    </row>
-    <row r="218" spans="7:10">
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>108</v>
-      </c>
-      <c r="I218">
-        <v>15.01093745117188</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="7:10">
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>109</v>
-      </c>
-      <c r="I219">
-        <v>1.661903857421875</v>
-      </c>
-      <c r="J219">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="220" spans="7:10">
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>109</v>
-      </c>
-      <c r="I220">
-        <v>14.9894197265625</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="7:10">
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>110</v>
-      </c>
-      <c r="I221">
-        <v>1.662249639892578</v>
-      </c>
-      <c r="J221">
-        <v>54.16</v>
-      </c>
-    </row>
-    <row r="222" spans="7:10">
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>110</v>
-      </c>
-      <c r="I222">
-        <v>14.9861705078125</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="7:10">
-      <c r="G223">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>111</v>
-      </c>
-      <c r="I223">
-        <v>1.661421026611328</v>
-      </c>
-      <c r="J223">
-        <v>54.26</v>
-      </c>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>111</v>
-      </c>
-      <c r="I224">
-        <v>14.96221040039062</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="7:10">
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>112</v>
-      </c>
-      <c r="I225">
-        <v>1.662219061279297</v>
-      </c>
-      <c r="J225">
-        <v>54.22</v>
-      </c>
-    </row>
-    <row r="226" spans="7:10">
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>112</v>
-      </c>
-      <c r="I226">
-        <v>14.99348315429688</v>
-      </c>
-      <c r="J226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="7:10">
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>113</v>
-      </c>
-      <c r="I227">
-        <v>1.662718267822266</v>
-      </c>
-      <c r="J227">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="228" spans="7:10">
-      <c r="G228">
-        <v>1</v>
-      </c>
-      <c r="H228">
-        <v>113</v>
-      </c>
-      <c r="I228">
-        <v>14.98144418945312</v>
-      </c>
-      <c r="J228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="7:10">
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>114</v>
-      </c>
-      <c r="I229">
-        <v>1.663155261230469</v>
-      </c>
-      <c r="J229">
-        <v>54.18</v>
-      </c>
-    </row>
-    <row r="230" spans="7:10">
-      <c r="G230">
-        <v>1</v>
-      </c>
-      <c r="H230">
-        <v>114</v>
-      </c>
-      <c r="I230">
-        <v>14.99423041992187</v>
-      </c>
-      <c r="J230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="7:10">
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>115</v>
-      </c>
-      <c r="I231">
-        <v>1.661991955566406</v>
-      </c>
-      <c r="J231">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="232" spans="7:10">
-      <c r="G232">
-        <v>1</v>
-      </c>
-      <c r="H232">
-        <v>115</v>
-      </c>
-      <c r="I232">
-        <v>14.98907338867187</v>
-      </c>
-      <c r="J232">
         <v>0</v>
       </c>
     </row>
@@ -5412,7 +4853,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5471,13 +4912,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30.13117619190947</v>
+        <v>568.7822604179382</v>
       </c>
       <c r="D3">
-        <v>28.2530403137207</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>19.98</v>
+        <v>27.16</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5486,10 +4927,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.366964147949219</v>
+        <v>2.235504675292969</v>
       </c>
       <c r="J3">
-        <v>32.16</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5500,13 +4941,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>15.32364444949361</v>
+        <v>798.3113206624985</v>
       </c>
       <c r="D4">
-        <v>35.87640380859375</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>20.16</v>
+        <v>31.36</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5515,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3.666147668457031</v>
+        <v>4.051223901367187</v>
       </c>
       <c r="J4">
-        <v>7.8</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5529,13 +4970,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.78909052776231</v>
+        <v>1000.092953443527</v>
       </c>
       <c r="D5">
-        <v>29.01233100891113</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>21.57</v>
+        <v>33.6</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -5544,10 +4985,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3.891832189941406</v>
+        <v>2.256162396240234</v>
       </c>
       <c r="J5">
-        <v>26.64</v>
+        <v>50.94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5558,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.40328314823661</v>
+        <v>1185.796982526779</v>
       </c>
       <c r="D6">
-        <v>23.1531867980957</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>23.02</v>
+        <v>34.9</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5573,10 +5014,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3.269734912109375</v>
+        <v>3.159676989746094</v>
       </c>
       <c r="J6">
-        <v>13.68</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5587,13 +5028,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>12.7286793266928</v>
+        <v>1362.122467637062</v>
       </c>
       <c r="D7">
-        <v>20.24169921875</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>18.22</v>
+        <v>35.77</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5602,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>4.094801171875</v>
+        <v>2.322167340087891</v>
       </c>
       <c r="J7">
-        <v>25.2</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5616,13 +5057,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>11.0916976365322</v>
+        <v>1526.480562925339</v>
       </c>
       <c r="D8">
-        <v>21.9716968536377</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>19.89</v>
+        <v>36.46</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5631,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>3.097979431152344</v>
+        <v>2.822233959960938</v>
       </c>
       <c r="J8">
-        <v>17.94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5645,13 +5086,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>11.03412576129903</v>
+        <v>1684.81657910347</v>
       </c>
       <c r="D9">
-        <v>20.6725025177002</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>23.2</v>
+        <v>36.93</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5660,10 +5101,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>4.582588098144531</v>
+        <v>2.401162579345703</v>
       </c>
       <c r="J9">
-        <v>20.9</v>
+        <v>46.54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5674,13 +5115,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.18135765904684</v>
+        <v>1834.790263056755</v>
       </c>
       <c r="D10">
-        <v>18.46536636352539</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>22.76</v>
+        <v>37.23999999999999</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5689,10 +5130,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>2.690898608398438</v>
+        <v>2.671569329833984</v>
       </c>
       <c r="J10">
-        <v>25.14</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5703,13 +5144,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.33659029020551</v>
+        <v>1974.929051995277</v>
       </c>
       <c r="D11">
-        <v>16.14455795288086</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>21.1</v>
+        <v>37.69</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5718,10 +5159,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>5.711594677734375</v>
+        <v>2.504417303466797</v>
       </c>
       <c r="J11">
-        <v>13.08</v>
+        <v>45.28</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5732,13 +5173,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.431050408690968</v>
+        <v>2111.525693893433</v>
       </c>
       <c r="D12">
-        <v>16.87462615966797</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>25.29</v>
+        <v>37.48</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5747,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>2.795876171875</v>
+        <v>2.561657836914062</v>
       </c>
       <c r="J12">
-        <v>23.36</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5761,13 +5202,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.995329972649651</v>
+        <v>2242.578914284706</v>
       </c>
       <c r="D13">
-        <v>15.6426305770874</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>24.27</v>
+        <v>37.83</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5776,10 +5217,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>5.691362707519532</v>
+        <v>2.593328381347656</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5790,13 +5231,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.349795241270852</v>
+        <v>2366.805836081505</v>
       </c>
       <c r="D14">
-        <v>17.18240737915039</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>37.92</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -5805,10 +5246,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>2.989789807128906</v>
+        <v>2.481619757080078</v>
       </c>
       <c r="J14">
-        <v>23.78</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5819,13 +5260,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.265446963382296</v>
+        <v>2485.622937679291</v>
       </c>
       <c r="D15">
-        <v>11.88331890106201</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>24.83</v>
+        <v>38.42</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5834,10 +5275,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>5.316217797851563</v>
+        <v>2.747473999023438</v>
       </c>
       <c r="J15">
-        <v>16.18</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5848,13 +5289,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.490328228524325</v>
+        <v>2603.034182667732</v>
       </c>
       <c r="D16">
-        <v>16.31432723999023</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>24.33</v>
+        <v>38.32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5863,10 +5304,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>2.591050018310547</v>
+        <v>2.373740344238281</v>
       </c>
       <c r="J16">
-        <v>30.22</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5877,13 +5318,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.019608122864177</v>
+        <v>2714.796573460102</v>
       </c>
       <c r="D17">
-        <v>12.74075317382812</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>23.36</v>
+        <v>38.41</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -5892,10 +5333,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>5.944155712890625</v>
+        <v>2.844529913330078</v>
       </c>
       <c r="J17">
-        <v>12.16</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5906,13 +5347,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.853312155013647</v>
+        <v>2822.363624811172</v>
       </c>
       <c r="D18">
-        <v>17.85554504394531</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>25.06</v>
+        <v>38.56</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5921,10 +5362,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>2.314621789550781</v>
+        <v>2.32848461303711</v>
       </c>
       <c r="J18">
-        <v>33.36</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5935,13 +5376,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.671661914046037</v>
+        <v>2929.707454025745</v>
       </c>
       <c r="D19">
-        <v>14.63935565948486</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>24.98</v>
+        <v>38.43</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5950,10 +5391,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>6.154773291015625</v>
+        <v>2.989906616210937</v>
       </c>
       <c r="J19">
-        <v>11.68</v>
+        <v>40.84</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5964,13 +5405,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.554361622171421</v>
+        <v>3031.59320217371</v>
       </c>
       <c r="D20">
-        <v>16.31914710998535</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>20.52</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -5979,10 +5420,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>2.515783203125</v>
+        <v>2.26467548828125</v>
       </c>
       <c r="J20">
-        <v>30.52</v>
+        <v>34.54</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5993,13 +5434,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.631932537200316</v>
+        <v>3131.271651387215</v>
       </c>
       <c r="D21">
-        <v>11.78061389923096</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>25.84</v>
+        <v>38.53</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -6008,10 +5449,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>6.136529443359375</v>
+        <v>3.113489807128906</v>
       </c>
       <c r="J21">
-        <v>12.84</v>
+        <v>39.36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6022,13 +5463,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.707320707653471</v>
+        <v>3230.618186950684</v>
       </c>
       <c r="D22">
-        <v>13.84112930297852</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>26.65</v>
+        <v>38.28</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6037,10 +5478,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.195252740478516</v>
+        <v>2.211808050537109</v>
       </c>
       <c r="J22">
-        <v>37.74</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6051,13 +5492,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.125594179665573</v>
+        <v>3324.383299171925</v>
       </c>
       <c r="D23">
-        <v>12.13352108001709</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>26.28</v>
+        <v>38.29</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6066,10 +5507,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>6.257252465820312</v>
+        <v>3.221537561035156</v>
       </c>
       <c r="J23">
-        <v>12.2</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6080,13 +5521,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>7.037370752211041</v>
+        <v>3419.584538519382</v>
       </c>
       <c r="D24">
-        <v>11.21513652801514</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>25.83</v>
+        <v>38.59999999999999</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -6095,10 +5536,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>2.244678118896484</v>
+        <v>2.185135662841797</v>
       </c>
       <c r="J24">
-        <v>36.34</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6109,13 +5550,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>7.024698982513199</v>
+        <v>3506.742590010166</v>
       </c>
       <c r="D25">
-        <v>12.77242660522461</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>24.46</v>
+        <v>38.09</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -6124,10 +5565,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>6.968133715820312</v>
+        <v>3.327543725585937</v>
       </c>
       <c r="J25">
-        <v>9.720000000000001</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6138,13 +5579,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>7.034794359919723</v>
+        <v>3594.673096120358</v>
       </c>
       <c r="D26">
-        <v>13.52019882202148</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>26.61</v>
+        <v>38.27</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -6153,10 +5594,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>2.196253131103516</v>
+        <v>2.156419677734375</v>
       </c>
       <c r="J26">
-        <v>38.28</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6167,13 +5608,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>6.433748721932512</v>
+        <v>3681.717226028442</v>
       </c>
       <c r="D27">
-        <v>12.07025527954102</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>22.34</v>
+        <v>38.37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -6182,10 +5623,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>6.495199731445313</v>
+        <v>3.468771655273438</v>
       </c>
       <c r="J27">
-        <v>12.22</v>
+        <v>37.32</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6196,13 +5637,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>6.246013920915964</v>
+        <v>3765.62958419323</v>
       </c>
       <c r="D28">
-        <v>9.389097213745117</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>24.56</v>
+        <v>37.85</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6211,10 +5652,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>2.281987152099609</v>
+        <v>2.109723504638672</v>
       </c>
       <c r="J28">
-        <v>37.44</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6225,13 +5666,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>6.409746265931337</v>
+        <v>3851.225690722466</v>
       </c>
       <c r="D29">
-        <v>17.61947250366211</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>24.33</v>
+        <v>38.29</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6240,10 +5681,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>6.668552587890625</v>
+        <v>3.558571069335938</v>
       </c>
       <c r="J29">
-        <v>10.4</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6254,13 +5695,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>6.339738513488118</v>
+        <v>3929.961627244949</v>
       </c>
       <c r="D30">
-        <v>12.172682762146</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>21.22</v>
+        <v>38.27</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -6269,10 +5710,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>2.198491918945312</v>
+        <v>2.077619036865234</v>
       </c>
       <c r="J30">
-        <v>38.26</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6283,13 +5724,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>5.956290190533569</v>
+        <v>4007.683042645454</v>
       </c>
       <c r="D31">
-        <v>11.39630889892578</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>25.11</v>
+        <v>38.03</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6298,10 +5739,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>7.582807934570313</v>
+        <v>3.661850744628906</v>
       </c>
       <c r="J31">
-        <v>9.56</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6312,13 +5753,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>6.011867080085032</v>
+        <v>4087.341653764248</v>
       </c>
       <c r="D32">
-        <v>10.85775089263916</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>23.04</v>
+        <v>38.23</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6327,10 +5768,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>2.288107690429687</v>
+        <v>2.049445959472656</v>
       </c>
       <c r="J32">
-        <v>37.16</v>
+        <v>40.92</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6341,13 +5782,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>6.040843299051608</v>
+        <v>4162.43167835474</v>
       </c>
       <c r="D33">
-        <v>11.5869026184082</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>25.52</v>
+        <v>38.23</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6356,10 +5797,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>7.154344213867187</v>
+        <v>3.784221203613281</v>
       </c>
       <c r="J33">
-        <v>8.16</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6370,13 +5811,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>5.569306310233816</v>
+        <v>4236.129554331303</v>
       </c>
       <c r="D34">
-        <v>9.446736335754395</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>26.68</v>
+        <v>38.18</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -6385,10 +5826,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>2.034584753417969</v>
+        <v>2.032249816894531</v>
       </c>
       <c r="J34">
-        <v>41.96</v>
+        <v>41.82</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6399,13 +5840,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>5.591911244979276</v>
+        <v>4306.961478948593</v>
       </c>
       <c r="D35">
-        <v>11.41940307617188</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>25.5</v>
+        <v>38.14</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6414,10 +5855,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>7.959778515625</v>
+        <v>3.906898986816406</v>
       </c>
       <c r="J35">
-        <v>8.880000000000001</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6428,13 +5869,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>5.820826956846701</v>
+        <v>4378.056963324547</v>
       </c>
       <c r="D36">
-        <v>10.68808746337891</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>24.84</v>
+        <v>38.06</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -6443,10 +5884,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>2.136170782470703</v>
+        <v>1.997248669433594</v>
       </c>
       <c r="J36">
-        <v>41.08</v>
+        <v>42.44</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6457,13 +5898,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>5.224571720123457</v>
+        <v>4449.288464307785</v>
       </c>
       <c r="D37">
-        <v>11.13317775726318</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>26.28</v>
+        <v>38.06</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6472,10 +5913,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>8.250154638671875</v>
+        <v>4.027328271484375</v>
       </c>
       <c r="J37">
-        <v>8.779999999999999</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6486,13 +5927,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>5.675352857952449</v>
+        <v>4515.282725602388</v>
       </c>
       <c r="D38">
-        <v>9.733406066894531</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>25.64</v>
+        <v>37.34999999999999</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6501,10 +5942,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>2.729699957275391</v>
+        <v>1.967184887695312</v>
       </c>
       <c r="J38">
-        <v>32.26</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6515,13 +5956,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>5.590132281438287</v>
+        <v>4582.161675035954</v>
       </c>
       <c r="D39">
-        <v>15.95530986785889</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>23.55</v>
+        <v>37.39</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6530,10 +5971,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>7.349803930664063</v>
+        <v>4.107727038574219</v>
       </c>
       <c r="J39">
-        <v>9.859999999999999</v>
+        <v>33.16</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6544,13 +5985,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>5.601319959751311</v>
+        <v>4645.926491737366</v>
       </c>
       <c r="D40">
-        <v>9.676985740661621</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>26.01</v>
+        <v>37.39</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -6559,10 +6000,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>2.019983258056641</v>
+        <v>1.960139874267578</v>
       </c>
       <c r="J40">
-        <v>41.82</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6573,13 +6014,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>5.80332833717823</v>
+        <v>4710.146073162556</v>
       </c>
       <c r="D41">
-        <v>11.86254692077637</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>25.24</v>
+        <v>38.04</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -6588,10 +6029,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>7.659905029296875</v>
+        <v>4.180217883300781</v>
       </c>
       <c r="J41">
-        <v>10.68</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -6602,13 +6043,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>5.853058971461726</v>
+        <v>4771.362216800451</v>
       </c>
       <c r="D42">
-        <v>16.15740966796875</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>24.53</v>
+        <v>37.68</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -6617,10 +6058,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>2.086751483154297</v>
+        <v>1.946940350341797</v>
       </c>
       <c r="J42">
-        <v>42.62</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6631,13 +6072,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>5.116514297305194</v>
+        <v>4833.089441925287</v>
       </c>
       <c r="D43">
-        <v>10.34365844726562</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>25.56</v>
+        <v>37.34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6646,10 +6087,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>8.100414013671875</v>
+        <v>4.305018859863281</v>
       </c>
       <c r="J43">
-        <v>8.52</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -6660,13 +6101,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>4.981805018367134</v>
+        <v>4892.223638564348</v>
       </c>
       <c r="D44">
-        <v>10.44461441040039</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>24.72</v>
+        <v>37.11</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6675,10 +6116,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>1.977890270996094</v>
+        <v>1.928225402832031</v>
       </c>
       <c r="J44">
-        <v>44.04</v>
+        <v>45.06</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6689,13 +6130,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>5.058056477168015</v>
+        <v>4947.81281208992</v>
       </c>
       <c r="D45">
-        <v>10.16563320159912</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>24.78</v>
+        <v>37.41</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -6704,10 +6145,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>8.01495791015625</v>
+        <v>4.301896594238281</v>
       </c>
       <c r="J45">
-        <v>9.58</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6718,13 +6159,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>4.881755726817721</v>
+        <v>5005.761252611876</v>
       </c>
       <c r="D46">
-        <v>14.86400127410889</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>22.89</v>
+        <v>37.57</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -6733,10 +6174,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>2.107035864257813</v>
+        <v>1.925495220947266</v>
       </c>
       <c r="J46">
-        <v>42.08</v>
+        <v>45.48</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6747,13 +6188,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>5.004050250069947</v>
+        <v>5059.29132220149</v>
       </c>
       <c r="D47">
-        <v>10.07700347900391</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>27.03</v>
+        <v>37.25</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -6762,10 +6203,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>8.548688940429688</v>
+        <v>4.494050341796875</v>
       </c>
       <c r="J47">
-        <v>9.44</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6776,13 +6217,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>4.554916674470751</v>
+        <v>5113.154639989138</v>
       </c>
       <c r="D48">
-        <v>12.29625797271729</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>24.45</v>
+        <v>37.25</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -6791,10 +6232,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>2.220244348144531</v>
+        <v>1.893870611572266</v>
       </c>
       <c r="J48">
-        <v>39.48</v>
+        <v>45.82</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6805,13 +6246,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>5.278622021953555</v>
+        <v>5164.52919626236</v>
       </c>
       <c r="D49">
-        <v>10.40853691101074</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>25.43</v>
+        <v>37.15</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6820,10 +6261,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>8.33299697265625</v>
+        <v>4.537647119140625</v>
       </c>
       <c r="J49">
-        <v>7.4</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6834,13 +6275,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>4.594761438144318</v>
+        <v>5215.053993761539</v>
       </c>
       <c r="D50">
-        <v>9.185120582580566</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>25.85</v>
+        <v>37.17</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -6849,10 +6290,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>1.919312225341797</v>
+        <v>1.891440814208984</v>
       </c>
       <c r="J50">
-        <v>45.82</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6863,13 +6304,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>4.579524220068633</v>
+        <v>5264.449347048998</v>
       </c>
       <c r="D51">
-        <v>8.564796447753906</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>24.17</v>
+        <v>36.87</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6878,10 +6319,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>9.223841088867188</v>
+        <v>4.626957897949219</v>
       </c>
       <c r="J51">
-        <v>8.220000000000001</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6892,13 +6333,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>4.912468737849066</v>
+        <v>5311.308417767286</v>
       </c>
       <c r="D52">
-        <v>11.19441699981689</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>23.3</v>
+        <v>36.59</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -6907,10 +6348,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>2.516930297851562</v>
+        <v>1.876544128417969</v>
       </c>
       <c r="J52">
-        <v>36.46</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6921,13 +6362,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>4.517905023633753</v>
+        <v>5357.307644605637</v>
       </c>
       <c r="D53">
-        <v>8.123117446899414</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>25.18</v>
+        <v>36.43</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6936,10 +6377,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>8.801622631835938</v>
+        <v>4.753177416992187</v>
       </c>
       <c r="J53">
-        <v>9.52</v>
+        <v>29.18</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6950,13 +6391,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>4.618843527716756</v>
+        <v>5405.119020998478</v>
       </c>
       <c r="D54">
-        <v>10.23944473266602</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>24.82</v>
+        <v>37.12</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -6965,10 +6406,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>2.423460498046875</v>
+        <v>1.859338262939453</v>
       </c>
       <c r="J54">
-        <v>39.6</v>
+        <v>46.52</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6979,13 +6420,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>4.75923534303999</v>
+        <v>5449.073152989149</v>
       </c>
       <c r="D55">
-        <v>10.65190601348877</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>25.6</v>
+        <v>36.66</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6994,10 +6435,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>9.336210180664063</v>
+        <v>4.729614086914062</v>
       </c>
       <c r="J55">
-        <v>7.28</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -7008,13 +6449,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>4.808948723267561</v>
+        <v>5491.452092438936</v>
       </c>
       <c r="D56">
-        <v>9.830931663513184</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>24.93</v>
+        <v>36.8</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -7023,10 +6464,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>2.272730310058594</v>
+        <v>1.867607891845703</v>
       </c>
       <c r="J56">
-        <v>41.38</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -7037,13 +6478,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>4.519980667426784</v>
+        <v>5532.488178789616</v>
       </c>
       <c r="D57">
-        <v>7.45598316192627</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>24.36</v>
+        <v>36.66</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -7052,10 +6493,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>10.33923100585938</v>
+        <v>4.891835766601562</v>
       </c>
       <c r="J57">
-        <v>5.18</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -7066,13 +6507,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>4.552119852916313</v>
+        <v>5572.897718295455</v>
       </c>
       <c r="D58">
-        <v>10.48817443847656</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>24.16</v>
+        <v>36.48</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -7081,10 +6522,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>2.552685052490234</v>
+        <v>1.854247814941406</v>
       </c>
       <c r="J58">
-        <v>37.26</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7095,13 +6536,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>4.397777627072694</v>
+        <v>5609.379453837872</v>
       </c>
       <c r="D59">
-        <v>9.88697624206543</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>25.39</v>
+        <v>36.14</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7110,10 +6551,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>9.178764550781249</v>
+        <v>4.938699975585937</v>
       </c>
       <c r="J59">
-        <v>8.42</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -7124,13 +6565,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>4.714094368800396</v>
+        <v>5647.540901556611</v>
       </c>
       <c r="D60">
-        <v>10.05028820037842</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>24.16</v>
+        <v>36.01000000000001</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -7139,10 +6580,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>2.315072259521485</v>
+        <v>1.84186259765625</v>
       </c>
       <c r="J60">
-        <v>41.8</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -7153,13 +6594,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>4.517570850839435</v>
+        <v>5683.477136299014</v>
       </c>
       <c r="D61">
-        <v>8.99658203125</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>24.5</v>
+        <v>35.95</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7168,10 +6609,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>10.15893671875</v>
+        <v>4.945590686035156</v>
       </c>
       <c r="J61">
-        <v>5.68</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -7182,13 +6623,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>4.671457996302955</v>
+        <v>5720.091281116009</v>
       </c>
       <c r="D62">
-        <v>10.69859600067139</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>24.82</v>
+        <v>36.46</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -7197,10 +6638,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>2.39330078125</v>
+        <v>1.843731188964844</v>
       </c>
       <c r="J62">
-        <v>40.4</v>
+        <v>48.06</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -7211,13 +6652,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>4.308977228985281</v>
+        <v>5752.708666592836</v>
       </c>
       <c r="D63">
-        <v>9.269228935241699</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>23.79</v>
+        <v>35.84</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7226,10 +6667,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>9.289952197265626</v>
+        <v>5.021817944335938</v>
       </c>
       <c r="J63">
-        <v>7.54</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -7240,13 +6681,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>4.279034965640647</v>
+        <v>5785.58738014102</v>
       </c>
       <c r="D64">
-        <v>10.31518268585205</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>25.27</v>
+        <v>35.86</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -7255,10 +6696,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>2.278974786376953</v>
+        <v>1.842574005126953</v>
       </c>
       <c r="J64">
-        <v>43.5</v>
+        <v>48.02</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7269,13 +6710,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>4.073902633792112</v>
+        <v>5816.662685930729</v>
       </c>
       <c r="D65">
-        <v>9.013186454772949</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>25.32</v>
+        <v>35.8</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7284,10 +6725,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>8.934773364257813</v>
+        <v>5.103340466308594</v>
       </c>
       <c r="J65">
-        <v>8.44</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -7298,13 +6739,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>4.22210669505618</v>
+        <v>5847.864833444357</v>
       </c>
       <c r="D66">
-        <v>11.75882434844971</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>24.19</v>
+        <v>36.23</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -7313,10 +6754,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>2.093755908203125</v>
+        <v>1.836142102050781</v>
       </c>
       <c r="J66">
-        <v>44.92</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -7327,13 +6768,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>4.582474688186934</v>
+        <v>5876.689949989319</v>
       </c>
       <c r="D67">
-        <v>10.74110126495361</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>24.86</v>
+        <v>35.7</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7342,10 +6783,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>9.620991064453126</v>
+        <v>5.232880017089844</v>
       </c>
       <c r="J67">
-        <v>6.8</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -7356,13 +6797,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>4.358033105696404</v>
+        <v>5904.639879643917</v>
       </c>
       <c r="D68">
-        <v>8.860219955444336</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>24.64</v>
+        <v>36.16</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -7371,10 +6812,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>2.162856091308594</v>
+        <v>1.829388537597656</v>
       </c>
       <c r="J68">
-        <v>44.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -7385,13 +6826,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>3.982908879899218</v>
+        <v>5933.483320578933</v>
       </c>
       <c r="D69">
-        <v>10.48489379882812</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>24.45</v>
+        <v>35.78</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -7400,10 +6841,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>10.09300302734375</v>
+        <v>5.24232490234375</v>
       </c>
       <c r="J69">
-        <v>7</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7414,13 +6855,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>4.369804348308281</v>
+        <v>5959.29410995543</v>
       </c>
       <c r="D70">
-        <v>11.141676902771</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>24.66</v>
+        <v>35.91</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7429,10 +6870,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>2.264157513427735</v>
+        <v>1.829415740966797</v>
       </c>
       <c r="J70">
-        <v>42.68</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7443,13 +6884,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>4.305777846997248</v>
+        <v>5985.178363978863</v>
       </c>
       <c r="D71">
-        <v>10.77262020111084</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>23.98</v>
+        <v>35.61</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7458,10 +6899,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>9.724561816406251</v>
+        <v>5.25361162109375</v>
       </c>
       <c r="J71">
-        <v>6.8</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -7472,13 +6913,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>3.987728258062092</v>
+        <v>6009.079371809959</v>
       </c>
       <c r="D72">
-        <v>10.08840465545654</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>24.82</v>
+        <v>35.71</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7487,10 +6928,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>2.013713494873047</v>
+        <v>1.84503544921875</v>
       </c>
       <c r="J72">
-        <v>45.76</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -7501,13 +6942,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>3.886469098291283</v>
+        <v>6032.973934344947</v>
       </c>
       <c r="D73">
-        <v>8.131559371948242</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>25.42</v>
+        <v>35.16</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7516,10 +6957,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>9.818105908203124</v>
+        <v>5.433678564453125</v>
       </c>
       <c r="J73">
-        <v>7.04</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -7530,13 +6971,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>3.936730556507304</v>
+        <v>6055.025151751935</v>
       </c>
       <c r="D74">
-        <v>8.197294235229492</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>25.59</v>
+        <v>35.46</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7545,10 +6986,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>2.239990295410156</v>
+        <v>1.8437337890625</v>
       </c>
       <c r="J74">
-        <v>44.24</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -7559,13 +7000,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>4.100431753273347</v>
+        <v>6077.132626153529</v>
       </c>
       <c r="D75">
-        <v>11.8560962677002</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>21.98</v>
+        <v>35.24</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7574,10 +7015,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>11.34781743164062</v>
+        <v>5.512907727050782</v>
       </c>
       <c r="J75">
-        <v>5.5</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -7588,13 +7029,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>4.400382559692944</v>
+        <v>6098.202145218849</v>
       </c>
       <c r="D76">
-        <v>10.98923206329346</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>23.87</v>
+        <v>35.51</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7603,10 +7044,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>2.461537689208984</v>
+        <v>1.832038537597656</v>
       </c>
       <c r="J76">
-        <v>41.6</v>
+        <v>48.76</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -7617,13 +7058,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>4.671380264586851</v>
+        <v>6118.039138101041</v>
       </c>
       <c r="D77">
-        <v>10.66946411132812</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>24.99</v>
+        <v>35.29</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7632,10 +7073,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>10.12935329589844</v>
+        <v>5.580851672363282</v>
       </c>
       <c r="J77">
-        <v>7.16</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -7646,13 +7087,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>3.9072623308368</v>
+        <v>6138.272229351103</v>
       </c>
       <c r="D78">
-        <v>7.623289108276367</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>25.38</v>
+        <v>35.45</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7661,10 +7102,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>2.331337622070313</v>
+        <v>1.815037371826172</v>
       </c>
       <c r="J78">
-        <v>44.86</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -7675,13 +7116,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>3.909268716308084</v>
+        <v>6156.839484840631</v>
       </c>
       <c r="D79">
-        <v>9.43181324005127</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>24.18</v>
+        <v>35.65</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7690,10 +7131,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>10.70366608886719</v>
+        <v>5.520944714355469</v>
       </c>
       <c r="J79">
-        <v>6.3</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -7704,13 +7145,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>3.857630990852163</v>
+        <v>6174.643246024847</v>
       </c>
       <c r="D80">
-        <v>12.95805072784424</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>24.49</v>
+        <v>35.18</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7719,10 +7160,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>2.304535919189453</v>
+        <v>1.832504772949219</v>
       </c>
       <c r="J80">
-        <v>44.18</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7733,13 +7174,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>4.172461202691057</v>
+        <v>6193.113859117031</v>
       </c>
       <c r="D81">
-        <v>10.64823818206787</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>22.81</v>
+        <v>34.99</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7748,10 +7189,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>10.7016435546875</v>
+        <v>5.676160510253906</v>
       </c>
       <c r="J81">
-        <v>5.6</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7762,13 +7203,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>4.61184059499818</v>
+        <v>6209.364541918039</v>
       </c>
       <c r="D82">
-        <v>8.999711990356445</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>24.76</v>
+        <v>35.15</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7777,10 +7218,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>2.355453186035156</v>
+        <v>1.833557720947266</v>
       </c>
       <c r="J82">
-        <v>43.46</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7791,13 +7232,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>4.289748374305054</v>
+        <v>6225.362498782575</v>
       </c>
       <c r="D83">
-        <v>8.643592834472656</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>24.67</v>
+        <v>34.98999999999999</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7806,28 +7247,13 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>10.74755112304688</v>
+        <v>5.611685180664063</v>
       </c>
       <c r="J83">
-        <v>5.52</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>82</v>
-      </c>
-      <c r="C84">
-        <v>3.980925751713634</v>
-      </c>
-      <c r="D84">
-        <v>10.22785663604736</v>
-      </c>
-      <c r="E84">
-        <v>24.17</v>
-      </c>
       <c r="G84">
         <v>1</v>
       </c>
@@ -7835,28 +7261,13 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>2.281152325439453</v>
+        <v>1.858041766357422</v>
       </c>
       <c r="J84">
-        <v>45.6</v>
+        <v>48.44</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85">
-        <v>83</v>
-      </c>
-      <c r="C85">
-        <v>4.510019201056919</v>
-      </c>
-      <c r="D85">
-        <v>13.75077056884766</v>
-      </c>
-      <c r="E85">
-        <v>24.81</v>
-      </c>
       <c r="G85">
         <v>0</v>
       </c>
@@ -7864,28 +7275,13 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>11.4299767578125</v>
+        <v>5.733996374511719</v>
       </c>
       <c r="J85">
-        <v>5.02</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86">
-        <v>84</v>
-      </c>
-      <c r="C86">
-        <v>4.849879376579768</v>
-      </c>
-      <c r="D86">
-        <v>15.43345069885254</v>
-      </c>
-      <c r="E86">
-        <v>23.12</v>
-      </c>
       <c r="G86">
         <v>1</v>
       </c>
@@ -7893,28 +7289,13 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>2.398293035888672</v>
+        <v>1.846214447021484</v>
       </c>
       <c r="J86">
-        <v>44.42</v>
+        <v>48.94</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>85</v>
-      </c>
-      <c r="C87">
-        <v>4.61283859581506</v>
-      </c>
-      <c r="D87">
-        <v>14.95887470245361</v>
-      </c>
-      <c r="E87">
-        <v>23.9</v>
-      </c>
       <c r="G87">
         <v>0</v>
       </c>
@@ -7922,28 +7303,13 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>11.5508080078125</v>
+        <v>5.832107470703125</v>
       </c>
       <c r="J87">
-        <v>5.24</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88">
-        <v>86</v>
-      </c>
-      <c r="C88">
-        <v>4.250866671366859</v>
-      </c>
-      <c r="D88">
-        <v>10.25510120391846</v>
-      </c>
-      <c r="E88">
-        <v>22.79</v>
-      </c>
       <c r="G88">
         <v>1</v>
       </c>
@@ -7951,28 +7317,13 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>2.359531921386719</v>
+        <v>1.859784643554687</v>
       </c>
       <c r="J88">
-        <v>44.32</v>
+        <v>49.12</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89">
-        <v>87</v>
-      </c>
-      <c r="C89">
-        <v>4.552439409741939</v>
-      </c>
-      <c r="D89">
-        <v>11.96205997467041</v>
-      </c>
-      <c r="E89">
-        <v>23.89</v>
-      </c>
       <c r="G89">
         <v>0</v>
       </c>
@@ -7980,28 +7331,13 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>12.47212006835938</v>
+        <v>5.803018041992187</v>
       </c>
       <c r="J89">
-        <v>4.7</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90">
-        <v>88</v>
-      </c>
-      <c r="C90">
-        <v>4.272337295218662</v>
-      </c>
-      <c r="D90">
-        <v>11.32640552520752</v>
-      </c>
-      <c r="E90">
-        <v>25.65</v>
-      </c>
       <c r="G90">
         <v>1</v>
       </c>
@@ -8009,28 +7345,13 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>2.7436833984375</v>
+        <v>1.854088330078125</v>
       </c>
       <c r="J90">
-        <v>41.08</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91">
-        <v>89</v>
-      </c>
-      <c r="C91">
-        <v>4.103546074628323</v>
-      </c>
-      <c r="D91">
-        <v>9.985888481140137</v>
-      </c>
-      <c r="E91">
-        <v>23.93</v>
-      </c>
       <c r="G91">
         <v>0</v>
       </c>
@@ -8038,28 +7359,13 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>10.69891877441406</v>
+        <v>5.951336328125</v>
       </c>
       <c r="J91">
-        <v>6.9</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-      <c r="C92">
-        <v>3.701164009702256</v>
-      </c>
-      <c r="D92">
-        <v>8.651185035705566</v>
-      </c>
-      <c r="E92">
-        <v>24.54</v>
-      </c>
       <c r="G92">
         <v>1</v>
       </c>
@@ -8067,28 +7373,13 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>2.191009301757813</v>
+        <v>1.857941302490234</v>
       </c>
       <c r="J92">
-        <v>47.16</v>
+        <v>49.54</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93">
-        <v>2</v>
-      </c>
-      <c r="B93">
-        <v>91</v>
-      </c>
-      <c r="C93">
-        <v>3.904011698826087</v>
-      </c>
-      <c r="D93">
-        <v>9.868253707885742</v>
-      </c>
-      <c r="E93">
-        <v>24.95</v>
-      </c>
       <c r="G93">
         <v>0</v>
       </c>
@@ -8096,28 +7387,13 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>12.18589086914062</v>
+        <v>6.007785205078125</v>
       </c>
       <c r="J93">
-        <v>5.22</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94">
-        <v>2</v>
-      </c>
-      <c r="B94">
-        <v>92</v>
-      </c>
-      <c r="C94">
-        <v>4.141587708908736</v>
-      </c>
-      <c r="D94">
-        <v>11.19496631622314</v>
-      </c>
-      <c r="E94">
-        <v>24.71</v>
-      </c>
       <c r="G94">
         <v>1</v>
       </c>
@@ -8125,28 +7401,13 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>2.567370104980469</v>
+        <v>1.8801515625</v>
       </c>
       <c r="J94">
-        <v>43.68</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95">
-        <v>2</v>
-      </c>
-      <c r="B95">
-        <v>93</v>
-      </c>
-      <c r="C95">
-        <v>5.147016573259328</v>
-      </c>
-      <c r="D95">
-        <v>10.61627960205078</v>
-      </c>
-      <c r="E95">
-        <v>23.94</v>
-      </c>
       <c r="G95">
         <v>0</v>
       </c>
@@ -8154,28 +7415,13 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>11.33887734375</v>
+        <v>6.075349169921875</v>
       </c>
       <c r="J95">
-        <v>5.46</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96">
-        <v>94</v>
-      </c>
-      <c r="C96">
-        <v>4.702600266951618</v>
-      </c>
-      <c r="D96">
-        <v>11.92396354675293</v>
-      </c>
-      <c r="E96">
-        <v>24.27</v>
-      </c>
       <c r="G96">
         <v>1</v>
       </c>
@@ -8183,28 +7429,13 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>2.422860241699219</v>
+        <v>1.882132647705078</v>
       </c>
       <c r="J96">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97">
-        <v>2</v>
-      </c>
-      <c r="B97">
-        <v>95</v>
-      </c>
-      <c r="C97">
-        <v>4.311221419147961</v>
-      </c>
-      <c r="D97">
-        <v>8.605297088623047</v>
-      </c>
-      <c r="E97">
-        <v>25.17</v>
-      </c>
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10">
       <c r="G97">
         <v>0</v>
       </c>
@@ -8212,28 +7443,13 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>11.16291257324219</v>
+        <v>6.108198413085938</v>
       </c>
       <c r="J97">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98">
-        <v>96</v>
-      </c>
-      <c r="C98">
-        <v>4.626962988597607</v>
-      </c>
-      <c r="D98">
-        <v>10.40239810943604</v>
-      </c>
-      <c r="E98">
-        <v>25.32</v>
-      </c>
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10">
       <c r="G98">
         <v>1</v>
       </c>
@@ -8241,28 +7457,13 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>2.42095200805664</v>
+        <v>1.900432482910156</v>
       </c>
       <c r="J98">
-        <v>45.34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99">
-        <v>2</v>
-      </c>
-      <c r="B99">
-        <v>97</v>
-      </c>
-      <c r="C99">
-        <v>4.269093934399588</v>
-      </c>
-      <c r="D99">
-        <v>10.39615726470947</v>
-      </c>
-      <c r="E99">
-        <v>24.74</v>
-      </c>
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10">
       <c r="G99">
         <v>0</v>
       </c>
@@ -8270,28 +7471,13 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>12.13095947265625</v>
+        <v>6.192785400390625</v>
       </c>
       <c r="J99">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100">
-        <v>98</v>
-      </c>
-      <c r="C100">
-        <v>4.023857808187604</v>
-      </c>
-      <c r="D100">
-        <v>7.817763328552246</v>
-      </c>
-      <c r="E100">
-        <v>25.6</v>
-      </c>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="100" spans="7:10">
       <c r="G100">
         <v>1</v>
       </c>
@@ -8299,28 +7485,13 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>2.7477619140625</v>
+        <v>1.892374694824219</v>
       </c>
       <c r="J100">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
-        <v>3.949336887934387</v>
-      </c>
-      <c r="D101">
-        <v>8.519225120544434</v>
-      </c>
-      <c r="E101">
-        <v>25.47</v>
-      </c>
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="101" spans="7:10">
       <c r="G101">
         <v>0</v>
       </c>
@@ -8328,28 +7499,13 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>12.45493193359375</v>
+        <v>6.26597197265625</v>
       </c>
       <c r="J101">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102">
-        <v>2</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102">
-        <v>3.938463850791704</v>
-      </c>
-      <c r="D102">
-        <v>9.966452598571777</v>
-      </c>
-      <c r="E102">
-        <v>23.71</v>
-      </c>
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="102" spans="7:10">
       <c r="G102">
         <v>1</v>
       </c>
@@ -8357,28 +7513,13 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>3.276838940429688</v>
+        <v>1.913491705322266</v>
       </c>
       <c r="J102">
-        <v>39.68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
-        <v>3.991796667585908</v>
-      </c>
-      <c r="D103">
-        <v>11.7209997177124</v>
-      </c>
-      <c r="E103">
-        <v>24.8</v>
-      </c>
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="103" spans="7:10">
       <c r="G103">
         <v>0</v>
       </c>
@@ -8386,28 +7527,13 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>12.47134887695312</v>
+        <v>6.3741802734375</v>
       </c>
       <c r="J103">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104">
-        <v>102</v>
-      </c>
-      <c r="C104">
-        <v>4.330930129814032</v>
-      </c>
-      <c r="D104">
-        <v>9.657528877258301</v>
-      </c>
-      <c r="E104">
-        <v>25.26</v>
-      </c>
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="104" spans="7:10">
       <c r="G104">
         <v>1</v>
       </c>
@@ -8415,28 +7541,13 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>2.615885968017578</v>
+        <v>1.920695989990234</v>
       </c>
       <c r="J104">
-        <v>44.68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>3.874453615641822</v>
-      </c>
-      <c r="D105">
-        <v>8.276249885559082</v>
-      </c>
-      <c r="E105">
-        <v>24.87</v>
-      </c>
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="105" spans="7:10">
       <c r="G105">
         <v>0</v>
       </c>
@@ -8444,28 +7555,13 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>12.88285864257812</v>
+        <v>6.22665498046875</v>
       </c>
       <c r="J105">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
-        <v>4.104463418693713</v>
-      </c>
-      <c r="D106">
-        <v>12.94537162780762</v>
-      </c>
-      <c r="E106">
-        <v>24.43</v>
-      </c>
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="106" spans="7:10">
       <c r="G106">
         <v>1</v>
       </c>
@@ -8473,28 +7569,13 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>2.580125256347656</v>
+        <v>1.918758935546875</v>
       </c>
       <c r="J106">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
-        <v>5.033291341400878</v>
-      </c>
-      <c r="D107">
-        <v>12.77665519714355</v>
-      </c>
-      <c r="E107">
-        <v>23.74</v>
-      </c>
+        <v>49.96</v>
+      </c>
+    </row>
+    <row r="107" spans="7:10">
       <c r="G107">
         <v>0</v>
       </c>
@@ -8502,28 +7583,13 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>12.19009560546875</v>
+        <v>6.340830810546875</v>
       </c>
       <c r="J107">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
-        <v>5.608903471839607</v>
-      </c>
-      <c r="D108">
-        <v>10.62576770782471</v>
-      </c>
-      <c r="E108">
-        <v>24.39</v>
-      </c>
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="108" spans="7:10">
       <c r="G108">
         <v>1</v>
       </c>
@@ -8531,28 +7597,13 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>2.616796612548828</v>
+        <v>1.936839837646484</v>
       </c>
       <c r="J108">
-        <v>45.04</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
-        <v>5.34589683732983</v>
-      </c>
-      <c r="D109">
-        <v>12.38483333587646</v>
-      </c>
-      <c r="E109">
-        <v>25.3</v>
-      </c>
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="109" spans="7:10">
       <c r="G109">
         <v>0</v>
       </c>
@@ -8560,28 +7611,13 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>12.48163388671875</v>
+        <v>6.37570078125</v>
       </c>
       <c r="J109">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110">
-        <v>2</v>
-      </c>
-      <c r="B110">
-        <v>108</v>
-      </c>
-      <c r="C110">
-        <v>4.753855588978465</v>
-      </c>
-      <c r="D110">
-        <v>11.92405414581299</v>
-      </c>
-      <c r="E110">
-        <v>24.65</v>
-      </c>
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="110" spans="7:10">
       <c r="G110">
         <v>1</v>
       </c>
@@ -8589,28 +7625,13 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>2.545964477539063</v>
+        <v>1.969659051513672</v>
       </c>
       <c r="J110">
-        <v>45.06</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111">
-        <v>2</v>
-      </c>
-      <c r="B111">
-        <v>109</v>
-      </c>
-      <c r="C111">
-        <v>4.026967166452218</v>
-      </c>
-      <c r="D111">
-        <v>9.675189018249512</v>
-      </c>
-      <c r="E111">
-        <v>24.58</v>
-      </c>
+        <v>49.96</v>
+      </c>
+    </row>
+    <row r="111" spans="7:10">
       <c r="G111">
         <v>0</v>
       </c>
@@ -8618,28 +7639,13 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>12.6719599609375</v>
+        <v>6.457967529296875</v>
       </c>
       <c r="J111">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112">
-        <v>2</v>
-      </c>
-      <c r="B112">
-        <v>110</v>
-      </c>
-      <c r="C112">
-        <v>4.098525131126186</v>
-      </c>
-      <c r="D112">
-        <v>9.696682929992676</v>
-      </c>
-      <c r="E112">
-        <v>24.91</v>
-      </c>
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="112" spans="7:10">
       <c r="G112">
         <v>1</v>
       </c>
@@ -8647,28 +7653,13 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>2.676221313476562</v>
+        <v>1.956886700439453</v>
       </c>
       <c r="J112">
-        <v>43.86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
-        <v>2</v>
-      </c>
-      <c r="B113">
-        <v>111</v>
-      </c>
-      <c r="C113">
-        <v>3.793216693848345</v>
-      </c>
-      <c r="D113">
-        <v>7.766199111938477</v>
-      </c>
-      <c r="E113">
-        <v>25.69</v>
-      </c>
+        <v>50.14</v>
+      </c>
+    </row>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>0</v>
       </c>
@@ -8676,28 +7667,13 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>13.8872005859375</v>
+        <v>6.466650756835937</v>
       </c>
       <c r="J113">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
-        <v>2</v>
-      </c>
-      <c r="B114">
-        <v>112</v>
-      </c>
-      <c r="C114">
-        <v>3.243800413386858</v>
-      </c>
-      <c r="D114">
-        <v>9.160980224609375</v>
-      </c>
-      <c r="E114">
-        <v>24.9</v>
-      </c>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="114" spans="7:10">
       <c r="G114">
         <v>1</v>
       </c>
@@ -8705,28 +7681,13 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>2.74991107788086</v>
+        <v>1.974209729003906</v>
       </c>
       <c r="J114">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
-        <v>2</v>
-      </c>
-      <c r="B115">
-        <v>113</v>
-      </c>
-      <c r="C115">
-        <v>3.204402769496537</v>
-      </c>
-      <c r="D115">
-        <v>8.817090034484863</v>
-      </c>
-      <c r="E115">
-        <v>24.79</v>
-      </c>
+        <v>49.56</v>
+      </c>
+    </row>
+    <row r="115" spans="7:10">
       <c r="G115">
         <v>0</v>
       </c>
@@ -8734,28 +7695,13 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>13.60156708984375</v>
+        <v>6.760848217773438</v>
       </c>
       <c r="J115">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>114</v>
-      </c>
-      <c r="C116">
-        <v>3.819181913167227</v>
-      </c>
-      <c r="D116">
-        <v>10.07153034210205</v>
-      </c>
-      <c r="E116">
-        <v>24.2</v>
-      </c>
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="116" spans="7:10">
       <c r="G116">
         <v>1</v>
       </c>
@@ -8763,28 +7709,13 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>2.634717816162109</v>
+        <v>1.997030126953125</v>
       </c>
       <c r="J116">
-        <v>46.24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
-        <v>2</v>
-      </c>
-      <c r="B117">
-        <v>115</v>
-      </c>
-      <c r="C117">
-        <v>5.03839198333152</v>
-      </c>
-      <c r="D117">
-        <v>13.489577293396</v>
-      </c>
-      <c r="E117">
-        <v>24.38</v>
-      </c>
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10">
       <c r="G117">
         <v>0</v>
       </c>
@@ -8792,13 +7723,13 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>13.69154404296875</v>
+        <v>6.654344750976563</v>
       </c>
       <c r="J117">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10">
       <c r="G118">
         <v>1</v>
       </c>
@@ -8806,13 +7737,13 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>2.7444255859375</v>
+        <v>1.996176324462891</v>
       </c>
       <c r="J118">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>0</v>
       </c>
@@ -8820,13 +7751,13 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>14.39387534179687</v>
+        <v>6.74315810546875</v>
       </c>
       <c r="J119">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10">
       <c r="G120">
         <v>1</v>
       </c>
@@ -8834,13 +7765,13 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>2.87164794921875</v>
+        <v>2.024852996826172</v>
       </c>
       <c r="J120">
-        <v>45.26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="121" spans="7:10">
       <c r="G121">
         <v>0</v>
       </c>
@@ -8848,13 +7779,13 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>13.37567368164063</v>
+        <v>6.6022716796875</v>
       </c>
       <c r="J121">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10">
       <c r="G122">
         <v>1</v>
       </c>
@@ -8862,13 +7793,13 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>2.638208898925781</v>
+        <v>1.998916906738281</v>
       </c>
       <c r="J122">
-        <v>45.76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="123" spans="7:10">
       <c r="G123">
         <v>0</v>
       </c>
@@ -8876,13 +7807,13 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>14.1242806640625</v>
+        <v>6.89470849609375</v>
       </c>
       <c r="J123">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="124" spans="7:10">
       <c r="G124">
         <v>1</v>
       </c>
@@ -8890,13 +7821,13 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>2.903409112548828</v>
+        <v>2.070804248046875</v>
       </c>
       <c r="J124">
-        <v>43.52</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="125" spans="7:10">
       <c r="G125">
         <v>0</v>
       </c>
@@ -8904,13 +7835,13 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>13.35632001953125</v>
+        <v>6.871378515625</v>
       </c>
       <c r="J125">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="126" spans="7:10">
       <c r="G126">
         <v>1</v>
       </c>
@@ -8918,13 +7849,13 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>2.707637713623047</v>
+        <v>2.054291247558594</v>
       </c>
       <c r="J126">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>49.66</v>
+      </c>
+    </row>
+    <row r="127" spans="7:10">
       <c r="G127">
         <v>0</v>
       </c>
@@ -8932,13 +7863,13 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>13.37258276367188</v>
+        <v>7.02860595703125</v>
       </c>
       <c r="J127">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="128" spans="7:10">
       <c r="G128">
         <v>1</v>
       </c>
@@ -8946,10 +7877,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>2.586346203613281</v>
+        <v>2.080638409423828</v>
       </c>
       <c r="J128">
-        <v>45.92</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -8960,10 +7891,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>14.63936030273437</v>
+        <v>6.840528173828125</v>
       </c>
       <c r="J129">
-        <v>3.98</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -8974,10 +7905,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>3.026876300048828</v>
+        <v>2.078096911621094</v>
       </c>
       <c r="J130">
-        <v>44.4</v>
+        <v>49.54</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -8988,10 +7919,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>14.2639544921875</v>
+        <v>6.982200903320313</v>
       </c>
       <c r="J131">
-        <v>4.74</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -9002,10 +7933,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>2.824727557373047</v>
+        <v>2.113902777099609</v>
       </c>
       <c r="J132">
-        <v>44.98</v>
+        <v>49.18</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -9016,10 +7947,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>13.794494921875</v>
+        <v>6.960436743164062</v>
       </c>
       <c r="J133">
-        <v>4.72</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -9030,10 +7961,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>2.946431756591797</v>
+        <v>2.149026031494141</v>
       </c>
       <c r="J134">
-        <v>44.56</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -9044,10 +7975,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>14.52412495117187</v>
+        <v>6.951766162109375</v>
       </c>
       <c r="J135">
-        <v>4.22</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -9058,10 +7989,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>2.936156878662109</v>
+        <v>2.095773718261719</v>
       </c>
       <c r="J136">
-        <v>44.68</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -9072,10 +8003,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>14.64906020507813</v>
+        <v>7.108325927734375</v>
       </c>
       <c r="J137">
-        <v>4.3</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -9086,10 +8017,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>2.958441705322266</v>
+        <v>2.167891955566406</v>
       </c>
       <c r="J138">
-        <v>45.02</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -9100,10 +8031,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>15.38435844726562</v>
+        <v>7.074949267578125</v>
       </c>
       <c r="J139">
-        <v>3.52</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -9114,10 +8045,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>3.183040478515625</v>
+        <v>2.191584008789063</v>
       </c>
       <c r="J140">
-        <v>44.44</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -9128,10 +8059,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>15.20939956054687</v>
+        <v>7.324951831054688</v>
       </c>
       <c r="J141">
-        <v>4.08</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -9142,10 +8073,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>3.185668762207031</v>
+        <v>2.195261187744141</v>
       </c>
       <c r="J142">
-        <v>45.56</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -9156,10 +8087,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>14.24298642578125</v>
+        <v>7.296970874023438</v>
       </c>
       <c r="J143">
-        <v>4.8</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -9170,10 +8101,10 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>2.998767163085938</v>
+        <v>2.203202404785156</v>
       </c>
       <c r="J144">
-        <v>46.04</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="145" spans="7:10">
@@ -9184,10 +8115,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>14.02427763671875</v>
+        <v>7.386509619140625</v>
       </c>
       <c r="J145">
-        <v>4.6</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -9198,10 +8129,10 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>2.913688580322265</v>
+        <v>2.235541400146484</v>
       </c>
       <c r="J146">
-        <v>46.58</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="147" spans="7:10">
@@ -9212,10 +8143,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>17.00352631835937</v>
+        <v>7.422962451171875</v>
       </c>
       <c r="J147">
-        <v>2.92</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -9226,10 +8157,10 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>3.714423608398437</v>
+        <v>2.227214147949219</v>
       </c>
       <c r="J148">
-        <v>41.04</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="149" spans="7:10">
@@ -9240,10 +8171,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>16.315078515625</v>
+        <v>7.347494165039063</v>
       </c>
       <c r="J149">
-        <v>3.44</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -9254,10 +8185,10 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>3.254928784179687</v>
+        <v>2.274604058837891</v>
       </c>
       <c r="J150">
-        <v>44.3</v>
+        <v>49.54</v>
       </c>
     </row>
     <row r="151" spans="7:10">
@@ -9268,10 +8199,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>14.57824575195312</v>
+        <v>7.45769892578125</v>
       </c>
       <c r="J151">
-        <v>4.88</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -9282,10 +8213,10 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>3.168352514648438</v>
+        <v>2.274955865478516</v>
       </c>
       <c r="J152">
-        <v>45.1</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="153" spans="7:10">
@@ -9296,10 +8227,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>15.68455224609375</v>
+        <v>7.38304404296875</v>
       </c>
       <c r="J153">
-        <v>4.32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -9310,10 +8241,10 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>3.10783046875</v>
+        <v>2.276044610595703</v>
       </c>
       <c r="J154">
-        <v>46.44</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="155" spans="7:10">
@@ -9324,10 +8255,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>16.08897114257812</v>
+        <v>7.438321411132812</v>
       </c>
       <c r="J155">
-        <v>3.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -9338,10 +8269,10 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>3.40643291015625</v>
+        <v>2.281657110595703</v>
       </c>
       <c r="J156">
-        <v>44.86</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="157" spans="7:10">
@@ -9352,10 +8283,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>15.84246381835938</v>
+        <v>7.484085888671875</v>
       </c>
       <c r="J157">
-        <v>3.76</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -9366,10 +8297,10 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>3.220434936523437</v>
+        <v>2.314154669189453</v>
       </c>
       <c r="J158">
-        <v>45.22</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="159" spans="7:10">
@@ -9380,10 +8311,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>16.47713486328125</v>
+        <v>7.422784619140625</v>
       </c>
       <c r="J159">
-        <v>3.78</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -9394,10 +8325,10 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>3.921314965820312</v>
+        <v>2.305716143798828</v>
       </c>
       <c r="J160">
-        <v>41.84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="7:10">
@@ -9408,10 +8339,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>15.69282451171875</v>
+        <v>7.6671986328125</v>
       </c>
       <c r="J161">
-        <v>4.3</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -9422,10 +8353,10 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>3.374660583496094</v>
+        <v>2.355113623046875</v>
       </c>
       <c r="J162">
-        <v>45.22</v>
+        <v>49.72</v>
       </c>
     </row>
     <row r="163" spans="7:10">
@@ -9436,10 +8367,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>16.44504814453125</v>
+        <v>7.527031225585938</v>
       </c>
       <c r="J163">
-        <v>3.54</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -9450,962 +8381,10 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>3.235889575195313</v>
+        <v>2.350479779052734</v>
       </c>
       <c r="J164">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="165" spans="7:10">
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>82</v>
-      </c>
-      <c r="I165">
-        <v>16.80236328125</v>
-      </c>
-      <c r="J165">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="166" spans="7:10">
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>82</v>
-      </c>
-      <c r="I166">
-        <v>3.575653051757813</v>
-      </c>
-      <c r="J166">
-        <v>44.26</v>
-      </c>
-    </row>
-    <row r="167" spans="7:10">
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>83</v>
-      </c>
-      <c r="I167">
-        <v>15.96561967773438</v>
-      </c>
-      <c r="J167">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="168" spans="7:10">
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>83</v>
-      </c>
-      <c r="I168">
-        <v>3.323577502441406</v>
-      </c>
-      <c r="J168">
-        <v>45.02</v>
-      </c>
-    </row>
-    <row r="169" spans="7:10">
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>84</v>
-      </c>
-      <c r="I169">
-        <v>17.5843173828125</v>
-      </c>
-      <c r="J169">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="170" spans="7:10">
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>84</v>
-      </c>
-      <c r="I170">
-        <v>3.862156713867187</v>
-      </c>
-      <c r="J170">
-        <v>41.76</v>
-      </c>
-    </row>
-    <row r="171" spans="7:10">
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>85</v>
-      </c>
-      <c r="I171">
-        <v>17.583621875</v>
-      </c>
-      <c r="J171">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="172" spans="7:10">
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>85</v>
-      </c>
-      <c r="I172">
-        <v>3.549754711914062</v>
-      </c>
-      <c r="J172">
-        <v>44.02</v>
-      </c>
-    </row>
-    <row r="173" spans="7:10">
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>86</v>
-      </c>
-      <c r="I173">
-        <v>17.9915279296875</v>
-      </c>
-      <c r="J173">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="174" spans="7:10">
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>86</v>
-      </c>
-      <c r="I174">
-        <v>4.235566259765625</v>
-      </c>
-      <c r="J174">
-        <v>41.32</v>
-      </c>
-    </row>
-    <row r="175" spans="7:10">
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>87</v>
-      </c>
-      <c r="I175">
-        <v>17.829153125</v>
-      </c>
-      <c r="J175">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="176" spans="7:10">
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>87</v>
-      </c>
-      <c r="I176">
-        <v>3.642944799804687</v>
-      </c>
-      <c r="J176">
-        <v>43.92</v>
-      </c>
-    </row>
-    <row r="177" spans="7:10">
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>88</v>
-      </c>
-      <c r="I177">
-        <v>16.87804643554687</v>
-      </c>
-      <c r="J177">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="178" spans="7:10">
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>88</v>
-      </c>
-      <c r="I178">
-        <v>3.341028405761719</v>
-      </c>
-      <c r="J178">
-        <v>46.82</v>
-      </c>
-    </row>
-    <row r="179" spans="7:10">
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>89</v>
-      </c>
-      <c r="I179">
-        <v>17.94562626953125</v>
-      </c>
-      <c r="J179">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="180" spans="7:10">
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>89</v>
-      </c>
-      <c r="I180">
-        <v>3.841621936035156</v>
-      </c>
-      <c r="J180">
-        <v>44.28</v>
-      </c>
-    </row>
-    <row r="181" spans="7:10">
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>90</v>
-      </c>
-      <c r="I181">
-        <v>17.49251572265625</v>
-      </c>
-      <c r="J181">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="182" spans="7:10">
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>90</v>
-      </c>
-      <c r="I182">
-        <v>3.420837231445312</v>
-      </c>
-      <c r="J182">
-        <v>45.96</v>
-      </c>
-    </row>
-    <row r="183" spans="7:10">
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>91</v>
-      </c>
-      <c r="I183">
-        <v>16.14329262695313</v>
-      </c>
-      <c r="J183">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="184" spans="7:10">
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>91</v>
-      </c>
-      <c r="I184">
-        <v>3.5777806640625</v>
-      </c>
-      <c r="J184">
-        <v>45.48</v>
-      </c>
-    </row>
-    <row r="185" spans="7:10">
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>92</v>
-      </c>
-      <c r="I185">
-        <v>18.08417387695312</v>
-      </c>
-      <c r="J185">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="186" spans="7:10">
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>92</v>
-      </c>
-      <c r="I186">
-        <v>3.622290600585937</v>
-      </c>
-      <c r="J186">
-        <v>45.82</v>
-      </c>
-    </row>
-    <row r="187" spans="7:10">
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>93</v>
-      </c>
-      <c r="I187">
-        <v>18.15201586914063</v>
-      </c>
-      <c r="J187">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="188" spans="7:10">
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188">
-        <v>93</v>
-      </c>
-      <c r="I188">
-        <v>4.099662060546875</v>
-      </c>
-      <c r="J188">
-        <v>43.86</v>
-      </c>
-    </row>
-    <row r="189" spans="7:10">
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>94</v>
-      </c>
-      <c r="I189">
-        <v>17.7649794921875</v>
-      </c>
-      <c r="J189">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="190" spans="7:10">
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>94</v>
-      </c>
-      <c r="I190">
-        <v>3.527189782714844</v>
-      </c>
-      <c r="J190">
-        <v>44.84</v>
-      </c>
-    </row>
-    <row r="191" spans="7:10">
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>95</v>
-      </c>
-      <c r="I191">
-        <v>17.18119892578125</v>
-      </c>
-      <c r="J191">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="192" spans="7:10">
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>95</v>
-      </c>
-      <c r="I192">
-        <v>3.566623547363281</v>
-      </c>
-      <c r="J192">
-        <v>45.84</v>
-      </c>
-    </row>
-    <row r="193" spans="7:10">
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>96</v>
-      </c>
-      <c r="I193">
-        <v>17.56579399414062</v>
-      </c>
-      <c r="J193">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="194" spans="7:10">
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>96</v>
-      </c>
-      <c r="I194">
-        <v>3.548171154785156</v>
-      </c>
-      <c r="J194">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="195" spans="7:10">
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>97</v>
-      </c>
-      <c r="I195">
-        <v>17.88545698242187</v>
-      </c>
-      <c r="J195">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="196" spans="7:10">
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>97</v>
-      </c>
-      <c r="I196">
-        <v>3.723194738769531</v>
-      </c>
-      <c r="J196">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="197" spans="7:10">
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>98</v>
-      </c>
-      <c r="I197">
-        <v>18.02021479492187</v>
-      </c>
-      <c r="J197">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="198" spans="7:10">
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>98</v>
-      </c>
-      <c r="I198">
-        <v>3.559356213378906</v>
-      </c>
-      <c r="J198">
-        <v>46.58</v>
-      </c>
-    </row>
-    <row r="199" spans="7:10">
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>99</v>
-      </c>
-      <c r="I199">
-        <v>17.5814025390625</v>
-      </c>
-      <c r="J199">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="200" spans="7:10">
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>99</v>
-      </c>
-      <c r="I200">
-        <v>3.639125842285156</v>
-      </c>
-      <c r="J200">
-        <v>46.36</v>
-      </c>
-    </row>
-    <row r="201" spans="7:10">
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>100</v>
-      </c>
-      <c r="I201">
-        <v>18.59139272460937</v>
-      </c>
-      <c r="J201">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="202" spans="7:10">
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>100</v>
-      </c>
-      <c r="I202">
-        <v>4.108046838378907</v>
-      </c>
-      <c r="J202">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="203" spans="7:10">
-      <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>101</v>
-      </c>
-      <c r="I203">
-        <v>19.10424721679687</v>
-      </c>
-      <c r="J203">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="204" spans="7:10">
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>101</v>
-      </c>
-      <c r="I204">
-        <v>3.729964099121094</v>
-      </c>
-      <c r="J204">
-        <v>46.08</v>
-      </c>
-    </row>
-    <row r="205" spans="7:10">
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>102</v>
-      </c>
-      <c r="I205">
-        <v>18.5523001953125</v>
-      </c>
-      <c r="J205">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="206" spans="7:10">
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206">
-        <v>102</v>
-      </c>
-      <c r="I206">
-        <v>3.781703344726563</v>
-      </c>
-      <c r="J206">
-        <v>46.22</v>
-      </c>
-    </row>
-    <row r="207" spans="7:10">
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>103</v>
-      </c>
-      <c r="I207">
-        <v>18.44315043945312</v>
-      </c>
-      <c r="J207">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="208" spans="7:10">
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>103</v>
-      </c>
-      <c r="I208">
-        <v>3.721072668457031</v>
-      </c>
-      <c r="J208">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>104</v>
-      </c>
-      <c r="I209">
-        <v>18.40095576171875</v>
-      </c>
-      <c r="J209">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="210" spans="7:10">
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>104</v>
-      </c>
-      <c r="I210">
-        <v>3.781774877929688</v>
-      </c>
-      <c r="J210">
-        <v>44.68</v>
-      </c>
-    </row>
-    <row r="211" spans="7:10">
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>105</v>
-      </c>
-      <c r="I211">
-        <v>18.62301157226563</v>
-      </c>
-      <c r="J211">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>105</v>
-      </c>
-      <c r="I212">
-        <v>4.172019165039062</v>
-      </c>
-      <c r="J212">
-        <v>43.92</v>
-      </c>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>106</v>
-      </c>
-      <c r="I213">
-        <v>18.98876586914063</v>
-      </c>
-      <c r="J213">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="214" spans="7:10">
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>106</v>
-      </c>
-      <c r="I214">
-        <v>3.909524169921875</v>
-      </c>
-      <c r="J214">
-        <v>44.66</v>
-      </c>
-    </row>
-    <row r="215" spans="7:10">
-      <c r="G215">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>107</v>
-      </c>
-      <c r="I215">
-        <v>18.47869951171875</v>
-      </c>
-      <c r="J215">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="216" spans="7:10">
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>107</v>
-      </c>
-      <c r="I216">
-        <v>3.732610388183594</v>
-      </c>
-      <c r="J216">
-        <v>46.44</v>
-      </c>
-    </row>
-    <row r="217" spans="7:10">
-      <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>108</v>
-      </c>
-      <c r="I217">
-        <v>18.90448237304687</v>
-      </c>
-      <c r="J217">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="218" spans="7:10">
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>108</v>
-      </c>
-      <c r="I218">
-        <v>3.830136083984375</v>
-      </c>
-      <c r="J218">
-        <v>45.78</v>
-      </c>
-    </row>
-    <row r="219" spans="7:10">
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>109</v>
-      </c>
-      <c r="I219">
-        <v>19.96970302734375</v>
-      </c>
-      <c r="J219">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="220" spans="7:10">
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>109</v>
-      </c>
-      <c r="I220">
-        <v>3.953787280273438</v>
-      </c>
-      <c r="J220">
-        <v>45.56</v>
-      </c>
-    </row>
-    <row r="221" spans="7:10">
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>110</v>
-      </c>
-      <c r="I221">
-        <v>19.12808842773438</v>
-      </c>
-      <c r="J221">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="222" spans="7:10">
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>110</v>
-      </c>
-      <c r="I222">
-        <v>3.905797216796875</v>
-      </c>
-      <c r="J222">
-        <v>45.7</v>
-      </c>
-    </row>
-    <row r="223" spans="7:10">
-      <c r="G223">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>111</v>
-      </c>
-      <c r="I223">
-        <v>19.07266162109375</v>
-      </c>
-      <c r="J223">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>111</v>
-      </c>
-      <c r="I224">
-        <v>3.8374962890625</v>
-      </c>
-      <c r="J224">
-        <v>47.08</v>
-      </c>
-    </row>
-    <row r="225" spans="7:10">
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>112</v>
-      </c>
-      <c r="I225">
-        <v>19.96801958007812</v>
-      </c>
-      <c r="J225">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="226" spans="7:10">
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>112</v>
-      </c>
-      <c r="I226">
-        <v>3.84031455078125</v>
-      </c>
-      <c r="J226">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="227" spans="7:10">
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>113</v>
-      </c>
-      <c r="I227">
-        <v>19.74179638671875</v>
-      </c>
-      <c r="J227">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="228" spans="7:10">
-      <c r="G228">
-        <v>1</v>
-      </c>
-      <c r="H228">
-        <v>113</v>
-      </c>
-      <c r="I228">
-        <v>3.905369128417969</v>
-      </c>
-      <c r="J228">
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="229" spans="7:10">
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>114</v>
-      </c>
-      <c r="I229">
-        <v>20.46239814453125</v>
-      </c>
-      <c r="J229">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="230" spans="7:10">
-      <c r="G230">
-        <v>1</v>
-      </c>
-      <c r="H230">
-        <v>114</v>
-      </c>
-      <c r="I230">
-        <v>4.118227563476562</v>
-      </c>
-      <c r="J230">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="231" spans="7:10">
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>115</v>
-      </c>
-      <c r="I231">
-        <v>19.77222563476563</v>
-      </c>
-      <c r="J231">
-        <v>4.64</v>
-      </c>
-    </row>
-    <row r="232" spans="7:10">
-      <c r="G232">
-        <v>1</v>
-      </c>
-      <c r="H232">
-        <v>115</v>
-      </c>
-      <c r="I232">
-        <v>4.437465844726563</v>
-      </c>
-      <c r="J232">
-        <v>44.12</v>
+        <v>48.94</v>
       </c>
     </row>
   </sheetData>
